--- a/PSI_results_df.xlsx
+++ b/PSI_results_df.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB577"/>
+  <dimension ref="A1:AC577"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -490,10 +490,15 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>p.value_sig</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>f2_value</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>effect_size</t>
         </is>
@@ -589,10 +594,13 @@
       <c r="Z2">
         <v>159</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2">
         <v>0.04249139665802457</v>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -688,10 +696,13 @@
       <c r="Z3">
         <v>159</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3">
         <v>0.04388231688810734</v>
       </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -787,10 +798,13 @@
       <c r="Z4">
         <v>159</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4">
         <v>0.04360768839361619</v>
       </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -886,10 +900,13 @@
       <c r="Z5">
         <v>159</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5">
         <v>0.1233753584986598</v>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -985,10 +1002,13 @@
       <c r="Z6">
         <v>159</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB6">
         <v>0.08211949132827083</v>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -1084,10 +1104,13 @@
       <c r="Z7">
         <v>159</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB7">
         <v>0.2146925232051654</v>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -1183,10 +1206,13 @@
       <c r="Z8">
         <v>159</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB8">
         <v>0.09694913129110978</v>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -1282,10 +1308,13 @@
       <c r="Z9">
         <v>159</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB9">
         <v>0.04428092599153103</v>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -1381,10 +1410,13 @@
       <c r="Z10">
         <v>159</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB10">
         <v>0.1254825944549949</v>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -1480,10 +1512,13 @@
       <c r="Z11">
         <v>159</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB11">
         <v>0.09263829470575215</v>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -1579,10 +1614,13 @@
       <c r="Z12">
         <v>159</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB12">
         <v>0.2233546670345754</v>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -1678,10 +1716,13 @@
       <c r="Z13">
         <v>159</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB13">
         <v>0.1048061131568176</v>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -1777,10 +1818,13 @@
       <c r="Z14">
         <v>159</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB14">
         <v>0.1254351287467794</v>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -1876,10 +1920,13 @@
       <c r="Z15">
         <v>159</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB15">
         <v>0.08886380839300699</v>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -1975,10 +2022,13 @@
       <c r="Z16">
         <v>159</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB16">
         <v>0.2205647463859656</v>
       </c>
-      <c r="AB16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -2074,10 +2124,13 @@
       <c r="Z17">
         <v>159</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB17">
         <v>0.1048126574753289</v>
       </c>
-      <c r="AB17" t="inlineStr">
+      <c r="AC17" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -2173,10 +2226,13 @@
       <c r="Z18">
         <v>159</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB18">
         <v>0.1434301051414051</v>
       </c>
-      <c r="AB18" t="inlineStr">
+      <c r="AC18" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -2272,10 +2328,13 @@
       <c r="Z19">
         <v>159</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB19">
         <v>0.2990614381657533</v>
       </c>
-      <c r="AB19" t="inlineStr">
+      <c r="AC19" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -2371,10 +2430,13 @@
       <c r="Z20">
         <v>159</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB20">
         <v>0.1806993196419649</v>
       </c>
-      <c r="AB20" t="inlineStr">
+      <c r="AC20" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -2470,10 +2532,13 @@
       <c r="Z21">
         <v>159</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB21">
         <v>0.2255717971757891</v>
       </c>
-      <c r="AB21" t="inlineStr">
+      <c r="AC21" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -2569,10 +2634,13 @@
       <c r="Z22">
         <v>159</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB22">
         <v>0.1473912710192447</v>
       </c>
-      <c r="AB22" t="inlineStr">
+      <c r="AC22" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -2668,10 +2736,13 @@
       <c r="Z23">
         <v>159</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23">
         <v>0.2567040887777553</v>
       </c>
-      <c r="AB23" t="inlineStr">
+      <c r="AC23" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -2767,10 +2838,13 @@
       <c r="Z24">
         <v>159</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB24">
         <v>0.1254832088533066</v>
       </c>
-      <c r="AB24" t="inlineStr">
+      <c r="AC24" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -2866,10 +2940,13 @@
       <c r="Z25">
         <v>159</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB25">
         <v>0.1074471518383414</v>
       </c>
-      <c r="AB25" t="inlineStr">
+      <c r="AC25" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -2965,10 +3042,13 @@
       <c r="Z26">
         <v>159</v>
       </c>
-      <c r="AA26">
+      <c r="AA26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB26">
         <v>0.23161308097493</v>
       </c>
-      <c r="AB26" t="inlineStr">
+      <c r="AC26" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -3064,10 +3144,13 @@
       <c r="Z27">
         <v>159</v>
       </c>
-      <c r="AA27">
+      <c r="AA27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB27">
         <v>0.1048680230378837</v>
       </c>
-      <c r="AB27" t="inlineStr">
+      <c r="AC27" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -3163,10 +3246,13 @@
       <c r="Z28">
         <v>159</v>
       </c>
-      <c r="AA28">
+      <c r="AA28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB28">
         <v>0.152354903523744</v>
       </c>
-      <c r="AB28" t="inlineStr">
+      <c r="AC28" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -3262,10 +3348,13 @@
       <c r="Z29">
         <v>159</v>
       </c>
-      <c r="AA29">
+      <c r="AA29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB29">
         <v>0.3104469877555462</v>
       </c>
-      <c r="AB29" t="inlineStr">
+      <c r="AC29" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -3361,10 +3450,13 @@
       <c r="Z30">
         <v>159</v>
       </c>
-      <c r="AA30">
+      <c r="AA30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB30">
         <v>0.1899853963020403</v>
       </c>
-      <c r="AB30" t="inlineStr">
+      <c r="AC30" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -3460,10 +3552,13 @@
       <c r="Z31">
         <v>159</v>
       </c>
-      <c r="AA31">
+      <c r="AA31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB31">
         <v>0.2418982156825678</v>
       </c>
-      <c r="AB31" t="inlineStr">
+      <c r="AC31" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -3559,10 +3654,13 @@
       <c r="Z32">
         <v>159</v>
       </c>
-      <c r="AA32">
+      <c r="AA32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB32">
         <v>0.1776339696398165</v>
       </c>
-      <c r="AB32" t="inlineStr">
+      <c r="AC32" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -3658,10 +3756,13 @@
       <c r="Z33">
         <v>159</v>
       </c>
-      <c r="AA33">
+      <c r="AA33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB33">
         <v>0.2757211514055044</v>
       </c>
-      <c r="AB33" t="inlineStr">
+      <c r="AC33" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -3757,10 +3858,13 @@
       <c r="Z34">
         <v>159</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB34">
         <v>0.1499711699046559</v>
       </c>
-      <c r="AB34" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -3856,10 +3960,13 @@
       <c r="Z35">
         <v>159</v>
       </c>
-      <c r="AA35">
+      <c r="AA35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB35">
         <v>0.3077999648189933</v>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AC35" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -3955,10 +4062,13 @@
       <c r="Z36">
         <v>159</v>
       </c>
-      <c r="AA36">
+      <c r="AA36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB36">
         <v>0.1905733801204195</v>
       </c>
-      <c r="AB36" t="inlineStr">
+      <c r="AC36" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -4054,10 +4164,13 @@
       <c r="Z37">
         <v>159</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB37">
         <v>0.2358917742019629</v>
       </c>
-      <c r="AB37" t="inlineStr">
+      <c r="AC37" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -4153,10 +4266,13 @@
       <c r="Z38">
         <v>159</v>
       </c>
-      <c r="AA38">
+      <c r="AA38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB38">
         <v>0.1710347870249026</v>
       </c>
-      <c r="AB38" t="inlineStr">
+      <c r="AC38" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -4252,10 +4368,13 @@
       <c r="Z39">
         <v>159</v>
       </c>
-      <c r="AA39">
+      <c r="AA39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB39">
         <v>0.2723605734530764</v>
       </c>
-      <c r="AB39" t="inlineStr">
+      <c r="AC39" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -4351,10 +4470,13 @@
       <c r="Z40">
         <v>159</v>
       </c>
-      <c r="AA40">
+      <c r="AA40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB40">
         <v>0.3007716342864565</v>
       </c>
-      <c r="AB40" t="inlineStr">
+      <c r="AC40" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -4450,10 +4572,13 @@
       <c r="Z41">
         <v>159</v>
       </c>
-      <c r="AA41">
+      <c r="AA41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB41">
         <v>0.2090754583861319</v>
       </c>
-      <c r="AB41" t="inlineStr">
+      <c r="AC41" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -4549,10 +4674,13 @@
       <c r="Z42">
         <v>159</v>
       </c>
-      <c r="AA42">
+      <c r="AA42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB42">
         <v>0.3422738259983077</v>
       </c>
-      <c r="AB42" t="inlineStr">
+      <c r="AC42" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -4648,10 +4776,13 @@
       <c r="Z43">
         <v>159</v>
       </c>
-      <c r="AA43">
+      <c r="AA43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB43">
         <v>0.2738130813492535</v>
       </c>
-      <c r="AB43" t="inlineStr">
+      <c r="AC43" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -4747,10 +4878,13 @@
       <c r="Z44">
         <v>159</v>
       </c>
-      <c r="AA44">
+      <c r="AA44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB44">
         <v>0.158840597210911</v>
       </c>
-      <c r="AB44" t="inlineStr">
+      <c r="AC44" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -4846,10 +4980,13 @@
       <c r="Z45">
         <v>159</v>
       </c>
-      <c r="AA45">
+      <c r="AA45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB45">
         <v>0.3153978326151563</v>
       </c>
-      <c r="AB45" t="inlineStr">
+      <c r="AC45" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -4945,10 +5082,13 @@
       <c r="Z46">
         <v>159</v>
       </c>
-      <c r="AA46">
+      <c r="AA46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB46">
         <v>0.1906542526230048</v>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AC46" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -5044,10 +5184,13 @@
       <c r="Z47">
         <v>159</v>
       </c>
-      <c r="AA47">
+      <c r="AA47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB47">
         <v>0.2664502164650249</v>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AC47" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -5143,10 +5286,13 @@
       <c r="Z48">
         <v>159</v>
       </c>
-      <c r="AA48">
+      <c r="AA48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB48">
         <v>0.1895996677434351</v>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AC48" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -5242,10 +5388,13 @@
       <c r="Z49">
         <v>159</v>
       </c>
-      <c r="AA49">
+      <c r="AA49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB49">
         <v>0.2797619059347536</v>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AC49" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -5341,10 +5490,13 @@
       <c r="Z50">
         <v>159</v>
       </c>
-      <c r="AA50">
+      <c r="AA50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB50">
         <v>0.3160919874037876</v>
       </c>
-      <c r="AB50" t="inlineStr">
+      <c r="AC50" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -5440,10 +5592,13 @@
       <c r="Z51">
         <v>159</v>
       </c>
-      <c r="AA51">
+      <c r="AA51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB51">
         <v>0.2358396033749666</v>
       </c>
-      <c r="AB51" t="inlineStr">
+      <c r="AC51" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -5539,10 +5694,13 @@
       <c r="Z52">
         <v>159</v>
       </c>
-      <c r="AA52">
+      <c r="AA52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB52">
         <v>0.3647400447074294</v>
       </c>
-      <c r="AB52" t="inlineStr">
+      <c r="AC52" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -5638,10 +5796,13 @@
       <c r="Z53">
         <v>159</v>
       </c>
-      <c r="AA53">
+      <c r="AA53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB53">
         <v>0.3096011080616883</v>
       </c>
-      <c r="AB53" t="inlineStr">
+      <c r="AC53" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -5737,10 +5898,13 @@
       <c r="Z54">
         <v>159</v>
       </c>
-      <c r="AA54">
+      <c r="AA54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB54">
         <v>0.3117591575558788</v>
       </c>
-      <c r="AB54" t="inlineStr">
+      <c r="AC54" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -5836,10 +6000,13 @@
       <c r="Z55">
         <v>159</v>
       </c>
-      <c r="AA55">
+      <c r="AA55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB55">
         <v>0.231428207445001</v>
       </c>
-      <c r="AB55" t="inlineStr">
+      <c r="AC55" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -5935,10 +6102,13 @@
       <c r="Z56">
         <v>159</v>
       </c>
-      <c r="AA56">
+      <c r="AA56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB56">
         <v>0.3618766659884482</v>
       </c>
-      <c r="AB56" t="inlineStr">
+      <c r="AC56" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -6034,10 +6204,13 @@
       <c r="Z57">
         <v>159</v>
       </c>
-      <c r="AA57">
+      <c r="AA57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB57">
         <v>0.3004949381332052</v>
       </c>
-      <c r="AB57" t="inlineStr">
+      <c r="AC57" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -6133,10 +6306,13 @@
       <c r="Z58">
         <v>159</v>
       </c>
-      <c r="AA58">
+      <c r="AA58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB58">
         <v>0.3470547084925318</v>
       </c>
-      <c r="AB58" t="inlineStr">
+      <c r="AC58" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -6232,10 +6408,13 @@
       <c r="Z59">
         <v>159</v>
       </c>
-      <c r="AA59">
+      <c r="AA59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB59">
         <v>0.3288803588352714</v>
       </c>
-      <c r="AB59" t="inlineStr">
+      <c r="AC59" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -6331,10 +6510,13 @@
       <c r="Z60">
         <v>159</v>
       </c>
-      <c r="AA60">
+      <c r="AA60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB60">
         <v>0.2414755364028224</v>
       </c>
-      <c r="AB60" t="inlineStr">
+      <c r="AC60" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -6430,10 +6612,13 @@
       <c r="Z61">
         <v>159</v>
       </c>
-      <c r="AA61">
+      <c r="AA61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB61">
         <v>0.3668091652342336</v>
       </c>
-      <c r="AB61" t="inlineStr">
+      <c r="AC61" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -6529,10 +6714,13 @@
       <c r="Z62">
         <v>159</v>
       </c>
-      <c r="AA62">
+      <c r="AA62" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB62">
         <v>0.330271898061346</v>
       </c>
-      <c r="AB62" t="inlineStr">
+      <c r="AC62" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -6628,10 +6816,13 @@
       <c r="Z63">
         <v>159</v>
       </c>
-      <c r="AA63">
+      <c r="AA63" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB63">
         <v>0.3800764733977078</v>
       </c>
-      <c r="AB63" t="inlineStr">
+      <c r="AC63" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -6727,10 +6918,13 @@
       <c r="Z64">
         <v>159</v>
       </c>
-      <c r="AA64">
+      <c r="AA64" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB64">
         <v>0.3734438879948322</v>
       </c>
-      <c r="AB64" t="inlineStr">
+      <c r="AC64" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -6826,10 +7020,13 @@
       <c r="Z65">
         <v>159</v>
       </c>
-      <c r="AA65">
+      <c r="AA65" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB65">
         <v>0.3914056262948698</v>
       </c>
-      <c r="AB65" t="inlineStr">
+      <c r="AC65" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -6925,10 +7122,13 @@
       <c r="Z66">
         <v>159</v>
       </c>
-      <c r="AA66">
+      <c r="AA66" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB66">
         <v>0.04295142733663874</v>
       </c>
-      <c r="AB66" t="inlineStr">
+      <c r="AC66" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -7024,10 +7224,13 @@
       <c r="Z67">
         <v>159</v>
       </c>
-      <c r="AA67">
+      <c r="AA67" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB67">
         <v>0.04656877959013034</v>
       </c>
-      <c r="AB67" t="inlineStr">
+      <c r="AC67" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -7123,10 +7326,13 @@
       <c r="Z68">
         <v>159</v>
       </c>
-      <c r="AA68">
+      <c r="AA68" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB68">
         <v>0.04690045144355005</v>
       </c>
-      <c r="AB68" t="inlineStr">
+      <c r="AC68" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -7222,10 +7428,13 @@
       <c r="Z69">
         <v>159</v>
       </c>
-      <c r="AA69">
+      <c r="AA69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB69">
         <v>0.1132696642104653</v>
       </c>
-      <c r="AB69" t="inlineStr">
+      <c r="AC69" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -7321,10 +7530,13 @@
       <c r="Z70">
         <v>159</v>
       </c>
-      <c r="AA70">
+      <c r="AA70" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB70">
         <v>0.07737798050380754</v>
       </c>
-      <c r="AB70" t="inlineStr">
+      <c r="AC70" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -7420,10 +7632,13 @@
       <c r="Z71">
         <v>159</v>
       </c>
-      <c r="AA71">
+      <c r="AA71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB71">
         <v>0.1510197727550776</v>
       </c>
-      <c r="AB71" t="inlineStr">
+      <c r="AC71" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -7519,10 +7734,13 @@
       <c r="Z72">
         <v>159</v>
       </c>
-      <c r="AA72">
+      <c r="AA72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB72">
         <v>0.06104498181342688</v>
       </c>
-      <c r="AB72" t="inlineStr">
+      <c r="AC72" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -7618,10 +7836,13 @@
       <c r="Z73">
         <v>159</v>
       </c>
-      <c r="AA73">
+      <c r="AA73" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB73">
         <v>0.04701511770350699</v>
       </c>
-      <c r="AB73" t="inlineStr">
+      <c r="AC73" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -7717,10 +7938,13 @@
       <c r="Z74">
         <v>159</v>
       </c>
-      <c r="AA74">
+      <c r="AA74" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB74">
         <v>0.1186618694889018</v>
       </c>
-      <c r="AB74" t="inlineStr">
+      <c r="AC74" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -7816,10 +8040,13 @@
       <c r="Z75">
         <v>159</v>
       </c>
-      <c r="AA75">
+      <c r="AA75" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB75">
         <v>0.09250300522251342</v>
       </c>
-      <c r="AB75" t="inlineStr">
+      <c r="AC75" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -7915,10 +8142,13 @@
       <c r="Z76">
         <v>159</v>
       </c>
-      <c r="AA76">
+      <c r="AA76" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB76">
         <v>0.1620398881574487</v>
       </c>
-      <c r="AB76" t="inlineStr">
+      <c r="AC76" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -8014,10 +8244,13 @@
       <c r="Z77">
         <v>159</v>
       </c>
-      <c r="AA77">
+      <c r="AA77" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB77">
         <v>0.06915218638108758</v>
       </c>
-      <c r="AB77" t="inlineStr">
+      <c r="AC77" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -8113,10 +8346,13 @@
       <c r="Z78">
         <v>159</v>
       </c>
-      <c r="AA78">
+      <c r="AA78" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB78">
         <v>0.1195729803200923</v>
       </c>
-      <c r="AB78" t="inlineStr">
+      <c r="AC78" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -8212,10 +8448,13 @@
       <c r="Z79">
         <v>159</v>
       </c>
-      <c r="AA79">
+      <c r="AA79" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB79">
         <v>0.08950868648977575</v>
       </c>
-      <c r="AB79" t="inlineStr">
+      <c r="AC79" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -8311,10 +8550,13 @@
       <c r="Z80">
         <v>159</v>
       </c>
-      <c r="AA80">
+      <c r="AA80" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB80">
         <v>0.1607641699252451</v>
       </c>
-      <c r="AB80" t="inlineStr">
+      <c r="AC80" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -8410,10 +8652,13 @@
       <c r="Z81">
         <v>159</v>
       </c>
-      <c r="AA81">
+      <c r="AA81" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB81">
         <v>0.07015033537509277</v>
       </c>
-      <c r="AB81" t="inlineStr">
+      <c r="AC81" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -8509,10 +8754,13 @@
       <c r="Z82">
         <v>159</v>
       </c>
-      <c r="AA82">
+      <c r="AA82" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB82">
         <v>0.1311179308622889</v>
       </c>
-      <c r="AB82" t="inlineStr">
+      <c r="AC82" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -8608,10 +8856,13 @@
       <c r="Z83">
         <v>159</v>
       </c>
-      <c r="AA83">
+      <c r="AA83" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB83">
         <v>0.2211576067734586</v>
       </c>
-      <c r="AB83" t="inlineStr">
+      <c r="AC83" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -8707,10 +8958,13 @@
       <c r="Z84">
         <v>159</v>
       </c>
-      <c r="AA84">
+      <c r="AA84" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB84">
         <v>0.130642551745163</v>
       </c>
-      <c r="AB84" t="inlineStr">
+      <c r="AC84" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -8806,10 +9060,13 @@
       <c r="Z85">
         <v>159</v>
       </c>
-      <c r="AA85">
+      <c r="AA85" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB85">
         <v>0.162613842946278</v>
       </c>
-      <c r="AB85" t="inlineStr">
+      <c r="AC85" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -8905,10 +9162,13 @@
       <c r="Z86">
         <v>159</v>
       </c>
-      <c r="AA86">
+      <c r="AA86" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB86">
         <v>0.09997043300306641</v>
       </c>
-      <c r="AB86" t="inlineStr">
+      <c r="AC86" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -9004,10 +9264,13 @@
       <c r="Z87">
         <v>159</v>
       </c>
-      <c r="AA87">
+      <c r="AA87" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB87">
         <v>0.1606147230755444</v>
       </c>
-      <c r="AB87" t="inlineStr">
+      <c r="AC87" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -9103,10 +9366,13 @@
       <c r="Z88">
         <v>159</v>
       </c>
-      <c r="AA88">
+      <c r="AA88" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB88">
         <v>0.1203996130597688</v>
       </c>
-      <c r="AB88" t="inlineStr">
+      <c r="AC88" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -9202,10 +9468,13 @@
       <c r="Z89">
         <v>159</v>
       </c>
-      <c r="AA89">
+      <c r="AA89" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB89">
         <v>0.09757442082737833</v>
       </c>
-      <c r="AB89" t="inlineStr">
+      <c r="AC89" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -9301,10 +9570,13 @@
       <c r="Z90">
         <v>159</v>
       </c>
-      <c r="AA90">
+      <c r="AA90" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB90">
         <v>0.1628558119398398</v>
       </c>
-      <c r="AB90" t="inlineStr">
+      <c r="AC90" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -9400,10 +9672,13 @@
       <c r="Z91">
         <v>159</v>
       </c>
-      <c r="AA91">
+      <c r="AA91" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB91">
         <v>0.07068678467658598</v>
       </c>
-      <c r="AB91" t="inlineStr">
+      <c r="AC91" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -9499,10 +9774,13 @@
       <c r="Z92">
         <v>159</v>
       </c>
-      <c r="AA92">
+      <c r="AA92" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB92">
         <v>0.1458545856592743</v>
       </c>
-      <c r="AB92" t="inlineStr">
+      <c r="AC92" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -9598,10 +9876,13 @@
       <c r="Z93">
         <v>159</v>
       </c>
-      <c r="AA93">
+      <c r="AA93" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB93">
         <v>0.2360342399650686</v>
       </c>
-      <c r="AB93" t="inlineStr">
+      <c r="AC93" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -9697,10 +9978,13 @@
       <c r="Z94">
         <v>159</v>
       </c>
-      <c r="AA94">
+      <c r="AA94" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB94">
         <v>0.1409635231983625</v>
       </c>
-      <c r="AB94" t="inlineStr">
+      <c r="AC94" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -9796,10 +10080,13 @@
       <c r="Z95">
         <v>159</v>
       </c>
-      <c r="AA95">
+      <c r="AA95" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB95">
         <v>0.1826480403186081</v>
       </c>
-      <c r="AB95" t="inlineStr">
+      <c r="AC95" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -9895,10 +10182,13 @@
       <c r="Z96">
         <v>159</v>
       </c>
-      <c r="AA96">
+      <c r="AA96" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB96">
         <v>0.1271767745712717</v>
       </c>
-      <c r="AB96" t="inlineStr">
+      <c r="AC96" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -9994,10 +10284,13 @@
       <c r="Z97">
         <v>159</v>
       </c>
-      <c r="AA97">
+      <c r="AA97" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB97">
         <v>0.1766360642228903</v>
       </c>
-      <c r="AB97" t="inlineStr">
+      <c r="AC97" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10093,10 +10386,13 @@
       <c r="Z98">
         <v>159</v>
       </c>
-      <c r="AA98">
+      <c r="AA98" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB98">
         <v>0.1442506405016081</v>
       </c>
-      <c r="AB98" t="inlineStr">
+      <c r="AC98" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10192,10 +10488,13 @@
       <c r="Z99">
         <v>159</v>
       </c>
-      <c r="AA99">
+      <c r="AA99" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB99">
         <v>0.2352709681724192</v>
       </c>
-      <c r="AB99" t="inlineStr">
+      <c r="AC99" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10291,10 +10590,13 @@
       <c r="Z100">
         <v>159</v>
       </c>
-      <c r="AA100">
+      <c r="AA100" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB100">
         <v>0.1427168189674327</v>
       </c>
-      <c r="AB100" t="inlineStr">
+      <c r="AC100" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10390,10 +10692,13 @@
       <c r="Z101">
         <v>159</v>
       </c>
-      <c r="AA101">
+      <c r="AA101" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB101">
         <v>0.1783364944996028</v>
       </c>
-      <c r="AB101" t="inlineStr">
+      <c r="AC101" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10489,10 +10794,13 @@
       <c r="Z102">
         <v>159</v>
       </c>
-      <c r="AA102">
+      <c r="AA102" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB102">
         <v>0.1233541217859848</v>
       </c>
-      <c r="AB102" t="inlineStr">
+      <c r="AC102" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -10588,10 +10896,13 @@
       <c r="Z103">
         <v>159</v>
       </c>
-      <c r="AA103">
+      <c r="AA103" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB103">
         <v>0.1756439687163161</v>
       </c>
-      <c r="AB103" t="inlineStr">
+      <c r="AC103" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10687,10 +10998,13 @@
       <c r="Z104">
         <v>159</v>
       </c>
-      <c r="AA104">
+      <c r="AA104" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB104">
         <v>0.2240677072267389</v>
       </c>
-      <c r="AB104" t="inlineStr">
+      <c r="AC104" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10786,10 +11100,13 @@
       <c r="Z105">
         <v>159</v>
       </c>
-      <c r="AA105">
+      <c r="AA105" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB105">
         <v>0.1520686830071763</v>
       </c>
-      <c r="AB105" t="inlineStr">
+      <c r="AC105" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10885,10 +11202,13 @@
       <c r="Z106">
         <v>159</v>
       </c>
-      <c r="AA106">
+      <c r="AA106" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB106">
         <v>0.2298125349782915</v>
       </c>
-      <c r="AB106" t="inlineStr">
+      <c r="AC106" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -10984,10 +11304,13 @@
       <c r="Z107">
         <v>159</v>
       </c>
-      <c r="AA107">
+      <c r="AA107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB107">
         <v>0.1749399675788018</v>
       </c>
-      <c r="AB107" t="inlineStr">
+      <c r="AC107" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -11083,10 +11406,13 @@
       <c r="Z108">
         <v>159</v>
       </c>
-      <c r="AA108">
+      <c r="AA108" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB108">
         <v>0.1470252108567928</v>
       </c>
-      <c r="AB108" t="inlineStr">
+      <c r="AC108" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -11182,10 +11508,13 @@
       <c r="Z109">
         <v>159</v>
       </c>
-      <c r="AA109">
+      <c r="AA109" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB109">
         <v>0.2361091175592921</v>
       </c>
-      <c r="AB109" t="inlineStr">
+      <c r="AC109" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -11281,10 +11610,13 @@
       <c r="Z110">
         <v>159</v>
       </c>
-      <c r="AA110">
+      <c r="AA110" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB110">
         <v>0.1442366963160384</v>
       </c>
-      <c r="AB110" t="inlineStr">
+      <c r="AC110" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -11380,10 +11712,13 @@
       <c r="Z111">
         <v>159</v>
       </c>
-      <c r="AA111">
+      <c r="AA111" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB111">
         <v>0.1908713926027373</v>
       </c>
-      <c r="AB111" t="inlineStr">
+      <c r="AC111" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -11479,10 +11814,13 @@
       <c r="Z112">
         <v>159</v>
       </c>
-      <c r="AA112">
+      <c r="AA112" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB112">
         <v>0.1307742994184309</v>
       </c>
-      <c r="AB112" t="inlineStr">
+      <c r="AC112" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -11578,10 +11916,13 @@
       <c r="Z113">
         <v>159</v>
       </c>
-      <c r="AA113">
+      <c r="AA113" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB113">
         <v>0.1767950598139622</v>
       </c>
-      <c r="AB113" t="inlineStr">
+      <c r="AC113" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -11677,10 +12018,13 @@
       <c r="Z114">
         <v>159</v>
       </c>
-      <c r="AA114">
+      <c r="AA114" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB114">
         <v>0.2447318078946693</v>
       </c>
-      <c r="AB114" t="inlineStr">
+      <c r="AC114" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -11776,10 +12120,13 @@
       <c r="Z115">
         <v>159</v>
       </c>
-      <c r="AA115">
+      <c r="AA115" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB115">
         <v>0.1779544068077222</v>
       </c>
-      <c r="AB115" t="inlineStr">
+      <c r="AC115" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -11875,10 +12222,13 @@
       <c r="Z116">
         <v>159</v>
       </c>
-      <c r="AA116">
+      <c r="AA116" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB116">
         <v>0.2498459387481471</v>
       </c>
-      <c r="AB116" t="inlineStr">
+      <c r="AC116" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -11974,10 +12324,13 @@
       <c r="Z117">
         <v>159</v>
       </c>
-      <c r="AA117">
+      <c r="AA117" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB117">
         <v>0.2049379076290904</v>
       </c>
-      <c r="AB117" t="inlineStr">
+      <c r="AC117" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12073,10 +12426,13 @@
       <c r="Z118">
         <v>159</v>
       </c>
-      <c r="AA118">
+      <c r="AA118" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB118">
         <v>0.2419611604745857</v>
       </c>
-      <c r="AB118" t="inlineStr">
+      <c r="AC118" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12172,10 +12528,13 @@
       <c r="Z119">
         <v>159</v>
       </c>
-      <c r="AA119">
+      <c r="AA119" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB119">
         <v>0.1758690149987046</v>
       </c>
-      <c r="AB119" t="inlineStr">
+      <c r="AC119" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12271,10 +12630,13 @@
       <c r="Z120">
         <v>159</v>
       </c>
-      <c r="AA120">
+      <c r="AA120" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB120">
         <v>0.2495160375436603</v>
       </c>
-      <c r="AB120" t="inlineStr">
+      <c r="AC120" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12370,10 +12732,13 @@
       <c r="Z121">
         <v>159</v>
       </c>
-      <c r="AA121">
+      <c r="AA121" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB121">
         <v>0.1998275119976058</v>
       </c>
-      <c r="AB121" t="inlineStr">
+      <c r="AC121" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12469,10 +12834,13 @@
       <c r="Z122">
         <v>159</v>
       </c>
-      <c r="AA122">
+      <c r="AA122" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB122">
         <v>0.234205116733669</v>
       </c>
-      <c r="AB122" t="inlineStr">
+      <c r="AC122" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12568,10 +12936,13 @@
       <c r="Z123">
         <v>159</v>
       </c>
-      <c r="AA123">
+      <c r="AA123" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB123">
         <v>0.2475355231963516</v>
       </c>
-      <c r="AB123" t="inlineStr">
+      <c r="AC123" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12667,10 +13038,13 @@
       <c r="Z124">
         <v>159</v>
       </c>
-      <c r="AA124">
+      <c r="AA124" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB124">
         <v>0.1787574687172402</v>
       </c>
-      <c r="AB124" t="inlineStr">
+      <c r="AC124" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12766,10 +13140,13 @@
       <c r="Z125">
         <v>159</v>
       </c>
-      <c r="AA125">
+      <c r="AA125" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB125">
         <v>0.2498730169605114</v>
       </c>
-      <c r="AB125" t="inlineStr">
+      <c r="AC125" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12865,10 +13242,13 @@
       <c r="Z126">
         <v>159</v>
       </c>
-      <c r="AA126">
+      <c r="AA126" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB126">
         <v>0.2114115623283377</v>
       </c>
-      <c r="AB126" t="inlineStr">
+      <c r="AC126" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -12964,10 +13344,13 @@
       <c r="Z127">
         <v>159</v>
       </c>
-      <c r="AA127">
+      <c r="AA127" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB127">
         <v>0.2637583452808009</v>
       </c>
-      <c r="AB127" t="inlineStr">
+      <c r="AC127" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -13063,10 +13446,13 @@
       <c r="Z128">
         <v>159</v>
       </c>
-      <c r="AA128">
+      <c r="AA128" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB128">
         <v>0.2604933776247852</v>
       </c>
-      <c r="AB128" t="inlineStr">
+      <c r="AC128" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -13162,10 +13548,13 @@
       <c r="Z129">
         <v>159</v>
       </c>
-      <c r="AA129">
+      <c r="AA129" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB129">
         <v>0.2659944513558612</v>
       </c>
-      <c r="AB129" t="inlineStr">
+      <c r="AC129" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -13261,10 +13650,13 @@
       <c r="Z130">
         <v>159</v>
       </c>
-      <c r="AA130">
+      <c r="AA130" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB130">
         <v>0.03301573571967824</v>
       </c>
-      <c r="AB130" t="inlineStr">
+      <c r="AC130" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -13360,10 +13752,13 @@
       <c r="Z131">
         <v>159</v>
       </c>
-      <c r="AA131">
+      <c r="AA131" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB131">
         <v>0.03336412644737855</v>
       </c>
-      <c r="AB131" t="inlineStr">
+      <c r="AC131" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -13459,10 +13854,13 @@
       <c r="Z132">
         <v>159</v>
       </c>
-      <c r="AA132">
+      <c r="AA132" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB132">
         <v>0.03310568702204206</v>
       </c>
-      <c r="AB132" t="inlineStr">
+      <c r="AC132" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -13558,10 +13956,13 @@
       <c r="Z133">
         <v>159</v>
       </c>
-      <c r="AA133">
+      <c r="AA133" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB133">
         <v>0.1013026270022623</v>
       </c>
-      <c r="AB133" t="inlineStr">
+      <c r="AC133" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -13657,10 +14058,13 @@
       <c r="Z134">
         <v>159</v>
       </c>
-      <c r="AA134">
+      <c r="AA134" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB134">
         <v>0.06928708404566251</v>
       </c>
-      <c r="AB134" t="inlineStr">
+      <c r="AC134" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -13756,10 +14160,13 @@
       <c r="Z135">
         <v>159</v>
       </c>
-      <c r="AA135">
+      <c r="AA135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB135">
         <v>0.2281938722654052</v>
       </c>
-      <c r="AB135" t="inlineStr">
+      <c r="AC135" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -13855,10 +14262,13 @@
       <c r="Z136">
         <v>159</v>
       </c>
-      <c r="AA136">
+      <c r="AA136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB136">
         <v>0.1242898537114093</v>
       </c>
-      <c r="AB136" t="inlineStr">
+      <c r="AC136" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -13954,10 +14364,13 @@
       <c r="Z137">
         <v>159</v>
       </c>
-      <c r="AA137">
+      <c r="AA137" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB137">
         <v>0.03619064791736501</v>
       </c>
-      <c r="AB137" t="inlineStr">
+      <c r="AC137" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -14053,10 +14466,13 @@
       <c r="Z138">
         <v>159</v>
       </c>
-      <c r="AA138">
+      <c r="AA138" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB138">
         <v>0.1018355011371098</v>
       </c>
-      <c r="AB138" t="inlineStr">
+      <c r="AC138" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -14152,10 +14568,13 @@
       <c r="Z139">
         <v>159</v>
       </c>
-      <c r="AA139">
+      <c r="AA139" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB139">
         <v>0.07557618006955996</v>
       </c>
-      <c r="AB139" t="inlineStr">
+      <c r="AC139" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -14251,10 +14670,13 @@
       <c r="Z140">
         <v>159</v>
       </c>
-      <c r="AA140">
+      <c r="AA140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB140">
         <v>0.2338561272834619</v>
       </c>
-      <c r="AB140" t="inlineStr">
+      <c r="AC140" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -14350,10 +14772,13 @@
       <c r="Z141">
         <v>159</v>
       </c>
-      <c r="AA141">
+      <c r="AA141" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB141">
         <v>0.1314477111295404</v>
       </c>
-      <c r="AB141" t="inlineStr">
+      <c r="AC141" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -14449,10 +14874,13 @@
       <c r="Z142">
         <v>159</v>
       </c>
-      <c r="AA142">
+      <c r="AA142" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB142">
         <v>0.1015957701942377</v>
       </c>
-      <c r="AB142" t="inlineStr">
+      <c r="AC142" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -14548,10 +14976,13 @@
       <c r="Z143">
         <v>159</v>
       </c>
-      <c r="AA143">
+      <c r="AA143" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB143">
         <v>0.07224558193173622</v>
       </c>
-      <c r="AB143" t="inlineStr">
+      <c r="AC143" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -14647,10 +15078,13 @@
       <c r="Z144">
         <v>159</v>
       </c>
-      <c r="AA144">
+      <c r="AA144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB144">
         <v>0.2308557401715794</v>
       </c>
-      <c r="AB144" t="inlineStr">
+      <c r="AC144" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -14746,10 +15180,13 @@
       <c r="Z145">
         <v>159</v>
       </c>
-      <c r="AA145">
+      <c r="AA145" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB145">
         <v>0.1306534567563883</v>
       </c>
-      <c r="AB145" t="inlineStr">
+      <c r="AC145" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -14845,10 +15282,13 @@
       <c r="Z146">
         <v>159</v>
       </c>
-      <c r="AA146">
+      <c r="AA146" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB146">
         <v>0.1197421065771153</v>
       </c>
-      <c r="AB146" t="inlineStr">
+      <c r="AC146" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -14944,10 +15384,13 @@
       <c r="Z147">
         <v>159</v>
       </c>
-      <c r="AA147">
+      <c r="AA147" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB147">
         <v>0.2982770801397189</v>
       </c>
-      <c r="AB147" t="inlineStr">
+      <c r="AC147" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -15043,10 +15486,13 @@
       <c r="Z148">
         <v>159</v>
       </c>
-      <c r="AA148">
+      <c r="AA148" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB148">
         <v>0.1971046866999861</v>
       </c>
-      <c r="AB148" t="inlineStr">
+      <c r="AC148" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -15142,10 +15588,13 @@
       <c r="Z149">
         <v>159</v>
       </c>
-      <c r="AA149">
+      <c r="AA149" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB149">
         <v>0.2360629399343096</v>
       </c>
-      <c r="AB149" t="inlineStr">
+      <c r="AC149" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -15241,10 +15690,13 @@
       <c r="Z150">
         <v>159</v>
       </c>
-      <c r="AA150">
+      <c r="AA150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB150">
         <v>0.1758638988173745</v>
       </c>
-      <c r="AB150" t="inlineStr">
+      <c r="AC150" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -15340,10 +15792,13 @@
       <c r="Z151">
         <v>159</v>
       </c>
-      <c r="AA151">
+      <c r="AA151" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB151">
         <v>0.3097848720553317</v>
       </c>
-      <c r="AB151" t="inlineStr">
+      <c r="AC151" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -15439,10 +15894,13 @@
       <c r="Z152">
         <v>159</v>
       </c>
-      <c r="AA152">
+      <c r="AA152" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB152">
         <v>0.1029653529951359</v>
       </c>
-      <c r="AB152" t="inlineStr">
+      <c r="AC152" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -15538,10 +15996,13 @@
       <c r="Z153">
         <v>159</v>
       </c>
-      <c r="AA153">
+      <c r="AA153" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB153">
         <v>0.09895531228820174</v>
       </c>
-      <c r="AB153" t="inlineStr">
+      <c r="AC153" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -15637,10 +16098,13 @@
       <c r="Z154">
         <v>159</v>
       </c>
-      <c r="AA154">
+      <c r="AA154" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB154">
         <v>0.2524850402403244</v>
       </c>
-      <c r="AB154" t="inlineStr">
+      <c r="AC154" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -15736,10 +16200,13 @@
       <c r="Z155">
         <v>159</v>
       </c>
-      <c r="AA155">
+      <c r="AA155" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB155">
         <v>0.1318853289267741</v>
       </c>
-      <c r="AB155" t="inlineStr">
+      <c r="AC155" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -15835,10 +16302,13 @@
       <c r="Z156">
         <v>159</v>
       </c>
-      <c r="AA156">
+      <c r="AA156" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB156">
         <v>0.1243685092041229</v>
       </c>
-      <c r="AB156" t="inlineStr">
+      <c r="AC156" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -15934,10 +16404,13 @@
       <c r="Z157">
         <v>159</v>
       </c>
-      <c r="AA157">
+      <c r="AA157" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB157">
         <v>0.305352064257318</v>
       </c>
-      <c r="AB157" t="inlineStr">
+      <c r="AC157" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -16033,10 +16506,13 @@
       <c r="Z158">
         <v>159</v>
       </c>
-      <c r="AA158">
+      <c r="AA158" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB158">
         <v>0.2047600769210304</v>
       </c>
-      <c r="AB158" t="inlineStr">
+      <c r="AC158" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -16132,10 +16608,13 @@
       <c r="Z159">
         <v>159</v>
       </c>
-      <c r="AA159">
+      <c r="AA159" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB159">
         <v>0.2469191551538103</v>
       </c>
-      <c r="AB159" t="inlineStr">
+      <c r="AC159" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -16231,10 +16710,13 @@
       <c r="Z160">
         <v>159</v>
       </c>
-      <c r="AA160">
+      <c r="AA160" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB160">
         <v>0.2048134816589613</v>
       </c>
-      <c r="AB160" t="inlineStr">
+      <c r="AC160" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -16330,10 +16812,13 @@
       <c r="Z161">
         <v>159</v>
       </c>
-      <c r="AA161">
+      <c r="AA161" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB161">
         <v>0.3288225702195724</v>
       </c>
-      <c r="AB161" t="inlineStr">
+      <c r="AC161" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -16429,10 +16914,13 @@
       <c r="Z162">
         <v>159</v>
       </c>
-      <c r="AA162">
+      <c r="AA162" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB162">
         <v>0.1222222624927539</v>
       </c>
-      <c r="AB162" t="inlineStr">
+      <c r="AC162" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -16528,10 +17016,13 @@
       <c r="Z163">
         <v>159</v>
       </c>
-      <c r="AA163">
+      <c r="AA163" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB163">
         <v>0.3023325565422959</v>
       </c>
-      <c r="AB163" t="inlineStr">
+      <c r="AC163" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -16627,10 +17118,13 @@
       <c r="Z164">
         <v>159</v>
       </c>
-      <c r="AA164">
+      <c r="AA164" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB164">
         <v>0.2043967279476345</v>
       </c>
-      <c r="AB164" t="inlineStr">
+      <c r="AC164" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -16726,10 +17220,13 @@
       <c r="Z165">
         <v>159</v>
       </c>
-      <c r="AA165">
+      <c r="AA165" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB165">
         <v>0.2412650577320836</v>
       </c>
-      <c r="AB165" t="inlineStr">
+      <c r="AC165" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -16825,10 +17322,13 @@
       <c r="Z166">
         <v>159</v>
       </c>
-      <c r="AA166">
+      <c r="AA166" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB166">
         <v>0.1967727447826898</v>
       </c>
-      <c r="AB166" t="inlineStr">
+      <c r="AC166" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -16924,10 +17424,13 @@
       <c r="Z167">
         <v>159</v>
       </c>
-      <c r="AA167">
+      <c r="AA167" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB167">
         <v>0.323804213571787</v>
       </c>
-      <c r="AB167" t="inlineStr">
+      <c r="AC167" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -17023,10 +17526,13 @@
       <c r="Z168">
         <v>159</v>
       </c>
-      <c r="AA168">
+      <c r="AA168" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB168">
         <v>0.299108524941102</v>
       </c>
-      <c r="AB168" t="inlineStr">
+      <c r="AC168" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -17122,10 +17628,13 @@
       <c r="Z169">
         <v>159</v>
       </c>
-      <c r="AA169">
+      <c r="AA169" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB169">
         <v>0.2271284978231277</v>
       </c>
-      <c r="AB169" t="inlineStr">
+      <c r="AC169" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -17221,10 +17730,13 @@
       <c r="Z170">
         <v>159</v>
       </c>
-      <c r="AA170">
+      <c r="AA170" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB170">
         <v>0.3820905250951297</v>
       </c>
-      <c r="AB170" t="inlineStr">
+      <c r="AC170" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -17320,10 +17832,13 @@
       <c r="Z171">
         <v>159</v>
       </c>
-      <c r="AA171">
+      <c r="AA171" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB171">
         <v>0.3258042358883942</v>
       </c>
-      <c r="AB171" t="inlineStr">
+      <c r="AC171" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -17419,10 +17934,13 @@
       <c r="Z172">
         <v>159</v>
       </c>
-      <c r="AA172">
+      <c r="AA172" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB172">
         <v>0.1371465759477443</v>
       </c>
-      <c r="AB172" t="inlineStr">
+      <c r="AC172" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -17518,10 +18036,13 @@
       <c r="Z173">
         <v>159</v>
       </c>
-      <c r="AA173">
+      <c r="AA173" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB173">
         <v>0.3188424573208444</v>
       </c>
-      <c r="AB173" t="inlineStr">
+      <c r="AC173" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -17617,10 +18138,13 @@
       <c r="Z174">
         <v>159</v>
       </c>
-      <c r="AA174">
+      <c r="AA174" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB174">
         <v>0.2047827279685502</v>
       </c>
-      <c r="AB174" t="inlineStr">
+      <c r="AC174" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -17716,10 +18240,13 @@
       <c r="Z175">
         <v>159</v>
       </c>
-      <c r="AA175">
+      <c r="AA175" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB175">
         <v>0.2859848256599268</v>
       </c>
-      <c r="AB175" t="inlineStr">
+      <c r="AC175" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -17815,10 +18342,13 @@
       <c r="Z176">
         <v>159</v>
       </c>
-      <c r="AA176">
+      <c r="AA176" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB176">
         <v>0.2254687952179515</v>
       </c>
-      <c r="AB176" t="inlineStr">
+      <c r="AC176" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -17914,10 +18444,13 @@
       <c r="Z177">
         <v>159</v>
       </c>
-      <c r="AA177">
+      <c r="AA177" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB177">
         <v>0.3396535917475792</v>
       </c>
-      <c r="AB177" t="inlineStr">
+      <c r="AC177" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -18013,10 +18546,13 @@
       <c r="Z178">
         <v>159</v>
       </c>
-      <c r="AA178">
+      <c r="AA178" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB178">
         <v>0.3083855932679057</v>
       </c>
-      <c r="AB178" t="inlineStr">
+      <c r="AC178" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -18112,10 +18648,13 @@
       <c r="Z179">
         <v>159</v>
       </c>
-      <c r="AA179">
+      <c r="AA179" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB179">
         <v>0.2513490178834822</v>
       </c>
-      <c r="AB179" t="inlineStr">
+      <c r="AC179" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -18211,10 +18750,13 @@
       <c r="Z180">
         <v>159</v>
       </c>
-      <c r="AA180">
+      <c r="AA180" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB180">
         <v>0.4029183979380555</v>
       </c>
-      <c r="AB180" t="inlineStr">
+      <c r="AC180" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -18310,10 +18852,13 @@
       <c r="Z181">
         <v>159</v>
       </c>
-      <c r="AA181">
+      <c r="AA181" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB181">
         <v>0.3609894050970588</v>
       </c>
-      <c r="AB181" t="inlineStr">
+      <c r="AC181" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -18409,10 +18954,13 @@
       <c r="Z182">
         <v>159</v>
       </c>
-      <c r="AA182">
+      <c r="AA182" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB182">
         <v>0.3042154727860423</v>
       </c>
-      <c r="AB182" t="inlineStr">
+      <c r="AC182" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -18508,10 +19056,13 @@
       <c r="Z183">
         <v>159</v>
       </c>
-      <c r="AA183">
+      <c r="AA183" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB183">
         <v>0.2456001961912724</v>
       </c>
-      <c r="AB183" t="inlineStr">
+      <c r="AC183" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -18607,10 +19158,13 @@
       <c r="Z184">
         <v>159</v>
       </c>
-      <c r="AA184">
+      <c r="AA184" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB184">
         <v>0.3983640881924515</v>
       </c>
-      <c r="AB184" t="inlineStr">
+      <c r="AC184" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -18706,10 +19260,13 @@
       <c r="Z185">
         <v>159</v>
       </c>
-      <c r="AA185">
+      <c r="AA185" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB185">
         <v>0.3498170770299804</v>
       </c>
-      <c r="AB185" t="inlineStr">
+      <c r="AC185" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -18805,10 +19362,13 @@
       <c r="Z186">
         <v>159</v>
       </c>
-      <c r="AA186">
+      <c r="AA186" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB186">
         <v>0.3866846708541363</v>
       </c>
-      <c r="AB186" t="inlineStr">
+      <c r="AC186" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -18904,10 +19464,13 @@
       <c r="Z187">
         <v>159</v>
       </c>
-      <c r="AA187">
+      <c r="AA187" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB187">
         <v>0.3322582871115747</v>
       </c>
-      <c r="AB187" t="inlineStr">
+      <c r="AC187" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -19003,10 +19566,13 @@
       <c r="Z188">
         <v>159</v>
       </c>
-      <c r="AA188">
+      <c r="AA188" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB188">
         <v>0.2637943953671519</v>
       </c>
-      <c r="AB188" t="inlineStr">
+      <c r="AC188" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -19102,10 +19668,13 @@
       <c r="Z189">
         <v>159</v>
       </c>
-      <c r="AA189">
+      <c r="AA189" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB189">
         <v>0.4104684893419549</v>
       </c>
-      <c r="AB189" t="inlineStr">
+      <c r="AC189" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -19201,10 +19770,13 @@
       <c r="Z190">
         <v>159</v>
       </c>
-      <c r="AA190">
+      <c r="AA190" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB190">
         <v>0.3959897263524618</v>
       </c>
-      <c r="AB190" t="inlineStr">
+      <c r="AC190" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -19300,10 +19872,13 @@
       <c r="Z191">
         <v>159</v>
       </c>
-      <c r="AA191">
+      <c r="AA191" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB191">
         <v>0.417397370072982</v>
       </c>
-      <c r="AB191" t="inlineStr">
+      <c r="AC191" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -19399,10 +19974,13 @@
       <c r="Z192">
         <v>159</v>
       </c>
-      <c r="AA192">
+      <c r="AA192" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB192">
         <v>0.4089155467265066</v>
       </c>
-      <c r="AB192" t="inlineStr">
+      <c r="AC192" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -19498,10 +20076,13 @@
       <c r="Z193">
         <v>159</v>
       </c>
-      <c r="AA193">
+      <c r="AA193" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB193">
         <v>0.4402463578859058</v>
       </c>
-      <c r="AB193" t="inlineStr">
+      <c r="AC193" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -19597,10 +20178,13 @@
       <c r="Z194">
         <v>159</v>
       </c>
-      <c r="AA194">
+      <c r="AA194" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB194">
         <v>0.03027040630284135</v>
       </c>
-      <c r="AB194" t="inlineStr">
+      <c r="AC194" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -19696,10 +20280,13 @@
       <c r="Z195">
         <v>159</v>
       </c>
-      <c r="AA195">
+      <c r="AA195" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB195">
         <v>0.03072043406100362</v>
       </c>
-      <c r="AB195" t="inlineStr">
+      <c r="AC195" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -19795,10 +20382,13 @@
       <c r="Z196">
         <v>159</v>
       </c>
-      <c r="AA196">
+      <c r="AA196" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB196">
         <v>0.03064449614799211</v>
       </c>
-      <c r="AB196" t="inlineStr">
+      <c r="AC196" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -19894,10 +20484,13 @@
       <c r="Z197">
         <v>159</v>
       </c>
-      <c r="AA197">
+      <c r="AA197" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB197">
         <v>0.09619470783859121</v>
       </c>
-      <c r="AB197" t="inlineStr">
+      <c r="AC197" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -19993,10 +20586,13 @@
       <c r="Z198">
         <v>159</v>
       </c>
-      <c r="AA198">
+      <c r="AA198" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB198">
         <v>0.07125318009520892</v>
       </c>
-      <c r="AB198" t="inlineStr">
+      <c r="AC198" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -20092,10 +20688,13 @@
       <c r="Z199">
         <v>159</v>
       </c>
-      <c r="AA199">
+      <c r="AA199" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB199">
         <v>0.2215852231877823</v>
       </c>
-      <c r="AB199" t="inlineStr">
+      <c r="AC199" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -20191,10 +20790,13 @@
       <c r="Z200">
         <v>159</v>
       </c>
-      <c r="AA200">
+      <c r="AA200" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB200">
         <v>0.09682676967691616</v>
       </c>
-      <c r="AB200" t="inlineStr">
+      <c r="AC200" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -20290,10 +20892,13 @@
       <c r="Z201">
         <v>159</v>
       </c>
-      <c r="AA201">
+      <c r="AA201" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB201">
         <v>0.030810139563056</v>
       </c>
-      <c r="AB201" t="inlineStr">
+      <c r="AC201" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -20389,10 +20994,13 @@
       <c r="Z202">
         <v>159</v>
       </c>
-      <c r="AA202">
+      <c r="AA202" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB202">
         <v>0.09674632708030675</v>
       </c>
-      <c r="AB202" t="inlineStr">
+      <c r="AC202" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -20488,10 +21096,13 @@
       <c r="Z203">
         <v>159</v>
       </c>
-      <c r="AA203">
+      <c r="AA203" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB203">
         <v>0.07884520351570151</v>
       </c>
-      <c r="AB203" t="inlineStr">
+      <c r="AC203" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -20587,10 +21198,13 @@
       <c r="Z204">
         <v>159</v>
       </c>
-      <c r="AA204">
+      <c r="AA204" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB204">
         <v>0.2297558283599663</v>
       </c>
-      <c r="AB204" t="inlineStr">
+      <c r="AC204" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -20686,10 +21300,13 @@
       <c r="Z205">
         <v>159</v>
       </c>
-      <c r="AA205">
+      <c r="AA205" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB205">
         <v>0.1040256745572522</v>
       </c>
-      <c r="AB205" t="inlineStr">
+      <c r="AC205" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -20785,10 +21402,13 @@
       <c r="Z206">
         <v>159</v>
       </c>
-      <c r="AA206">
+      <c r="AA206" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB206">
         <v>0.09680631425900386</v>
       </c>
-      <c r="AB206" t="inlineStr">
+      <c r="AC206" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -20884,10 +21504,13 @@
       <c r="Z207">
         <v>159</v>
       </c>
-      <c r="AA207">
+      <c r="AA207" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB207">
         <v>0.07600170379820216</v>
       </c>
-      <c r="AB207" t="inlineStr">
+      <c r="AC207" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -20983,10 +21606,13 @@
       <c r="Z208">
         <v>159</v>
       </c>
-      <c r="AA208">
+      <c r="AA208" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB208">
         <v>0.227294517534887</v>
       </c>
-      <c r="AB208" t="inlineStr">
+      <c r="AC208" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -21082,10 +21708,13 @@
       <c r="Z209">
         <v>159</v>
       </c>
-      <c r="AA209">
+      <c r="AA209" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB209">
         <v>0.1044807572622594</v>
       </c>
-      <c r="AB209" t="inlineStr">
+      <c r="AC209" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -21181,10 +21810,13 @@
       <c r="Z210">
         <v>159</v>
       </c>
-      <c r="AA210">
+      <c r="AA210" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB210">
         <v>0.1200799890714131</v>
       </c>
-      <c r="AB210" t="inlineStr">
+      <c r="AC210" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -21280,10 +21912,13 @@
       <c r="Z211">
         <v>159</v>
       </c>
-      <c r="AA211">
+      <c r="AA211" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB211">
         <v>0.2938388597733906</v>
       </c>
-      <c r="AB211" t="inlineStr">
+      <c r="AC211" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -21379,10 +22014,13 @@
       <c r="Z212">
         <v>159</v>
       </c>
-      <c r="AA212">
+      <c r="AA212" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB212">
         <v>0.1669758770328583</v>
       </c>
-      <c r="AB212" t="inlineStr">
+      <c r="AC212" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -21478,10 +22116,13 @@
       <c r="Z213">
         <v>159</v>
       </c>
-      <c r="AA213">
+      <c r="AA213" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB213">
         <v>0.2312484643630462</v>
       </c>
-      <c r="AB213" t="inlineStr">
+      <c r="AC213" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -21577,10 +22218,13 @@
       <c r="Z214">
         <v>159</v>
       </c>
-      <c r="AA214">
+      <c r="AA214" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB214">
         <v>0.148631732739779</v>
       </c>
-      <c r="AB214" t="inlineStr">
+      <c r="AC214" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -21676,10 +22320,13 @@
       <c r="Z215">
         <v>159</v>
       </c>
-      <c r="AA215">
+      <c r="AA215" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB215">
         <v>0.2737629648042355</v>
       </c>
-      <c r="AB215" t="inlineStr">
+      <c r="AC215" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -21775,10 +22422,13 @@
       <c r="Z216">
         <v>159</v>
       </c>
-      <c r="AA216">
+      <c r="AA216" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB216">
         <v>0.09683545559985686</v>
       </c>
-      <c r="AB216" t="inlineStr">
+      <c r="AC216" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -21874,10 +22524,13 @@
       <c r="Z217">
         <v>159</v>
       </c>
-      <c r="AA217">
+      <c r="AA217" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB217">
         <v>0.09095104574791266</v>
       </c>
-      <c r="AB217" t="inlineStr">
+      <c r="AC217" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -21973,10 +22626,13 @@
       <c r="Z218">
         <v>159</v>
       </c>
-      <c r="AA218">
+      <c r="AA218" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB218">
         <v>0.2364796504393119</v>
       </c>
-      <c r="AB218" t="inlineStr">
+      <c r="AC218" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -22072,10 +22728,13 @@
       <c r="Z219">
         <v>159</v>
       </c>
-      <c r="AA219">
+      <c r="AA219" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB219">
         <v>0.104543616179186</v>
       </c>
-      <c r="AB219" t="inlineStr">
+      <c r="AC219" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -22171,10 +22830,13 @@
       <c r="Z220">
         <v>159</v>
       </c>
-      <c r="AA220">
+      <c r="AA220" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB220">
         <v>0.1259338835515836</v>
       </c>
-      <c r="AB220" t="inlineStr">
+      <c r="AC220" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -22270,10 +22932,13 @@
       <c r="Z221">
         <v>159</v>
       </c>
-      <c r="AA221">
+      <c r="AA221" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB221">
         <v>0.3036862417155684</v>
       </c>
-      <c r="AB221" t="inlineStr">
+      <c r="AC221" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -22369,10 +23034,13 @@
       <c r="Z222">
         <v>159</v>
       </c>
-      <c r="AA222">
+      <c r="AA222" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB222">
         <v>0.1744339624076562</v>
       </c>
-      <c r="AB222" t="inlineStr">
+      <c r="AC222" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -22468,10 +23136,13 @@
       <c r="Z223">
         <v>159</v>
       </c>
-      <c r="AA223">
+      <c r="AA223" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB223">
         <v>0.2462928834114654</v>
       </c>
-      <c r="AB223" t="inlineStr">
+      <c r="AC223" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -22567,10 +23238,13 @@
       <c r="Z224">
         <v>159</v>
       </c>
-      <c r="AA224">
+      <c r="AA224" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB224">
         <v>0.1782245127928961</v>
       </c>
-      <c r="AB224" t="inlineStr">
+      <c r="AC224" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -22666,10 +23340,13 @@
       <c r="Z225">
         <v>159</v>
       </c>
-      <c r="AA225">
+      <c r="AA225" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB225">
         <v>0.2953239281890931</v>
       </c>
-      <c r="AB225" t="inlineStr">
+      <c r="AC225" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -22765,10 +23442,13 @@
       <c r="Z226">
         <v>159</v>
       </c>
-      <c r="AA226">
+      <c r="AA226" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB226">
         <v>0.1241942934155954</v>
       </c>
-      <c r="AB226" t="inlineStr">
+      <c r="AC226" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -22864,10 +23544,13 @@
       <c r="Z227">
         <v>159</v>
       </c>
-      <c r="AA227">
+      <c r="AA227" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB227">
         <v>0.301471446420219</v>
       </c>
-      <c r="AB227" t="inlineStr">
+      <c r="AC227" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -22963,10 +23646,13 @@
       <c r="Z228">
         <v>159</v>
       </c>
-      <c r="AA228">
+      <c r="AA228" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB228">
         <v>0.1753886693257808</v>
       </c>
-      <c r="AB228" t="inlineStr">
+      <c r="AC228" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -23062,10 +23748,13 @@
       <c r="Z229">
         <v>159</v>
       </c>
-      <c r="AA229">
+      <c r="AA229" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB229">
         <v>0.240985779621566</v>
       </c>
-      <c r="AB229" t="inlineStr">
+      <c r="AC229" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -23161,10 +23850,13 @@
       <c r="Z230">
         <v>159</v>
       </c>
-      <c r="AA230">
+      <c r="AA230" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB230">
         <v>0.1724639229184854</v>
       </c>
-      <c r="AB230" t="inlineStr">
+      <c r="AC230" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -23260,10 +23952,13 @@
       <c r="Z231">
         <v>159</v>
       </c>
-      <c r="AA231">
+      <c r="AA231" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB231">
         <v>0.2923091109255915</v>
       </c>
-      <c r="AB231" t="inlineStr">
+      <c r="AC231" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -23359,10 +24054,13 @@
       <c r="Z232">
         <v>159</v>
       </c>
-      <c r="AA232">
+      <c r="AA232" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB232">
         <v>0.2957190331019257</v>
       </c>
-      <c r="AB232" t="inlineStr">
+      <c r="AC232" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -23458,10 +24156,13 @@
       <c r="Z233">
         <v>159</v>
       </c>
-      <c r="AA233">
+      <c r="AA233" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB233">
         <v>0.1995847795949396</v>
       </c>
-      <c r="AB233" t="inlineStr">
+      <c r="AC233" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -23557,10 +24258,13 @@
       <c r="Z234">
         <v>159</v>
       </c>
-      <c r="AA234">
+      <c r="AA234" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB234">
         <v>0.3480575731959338</v>
       </c>
-      <c r="AB234" t="inlineStr">
+      <c r="AC234" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -23656,10 +24360,13 @@
       <c r="Z235">
         <v>159</v>
       </c>
-      <c r="AA235">
+      <c r="AA235" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB235">
         <v>0.2894438057491376</v>
       </c>
-      <c r="AB235" t="inlineStr">
+      <c r="AC235" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -23755,10 +24462,13 @@
       <c r="Z236">
         <v>159</v>
       </c>
-      <c r="AA236">
+      <c r="AA236" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB236">
         <v>0.1314991701926872</v>
       </c>
-      <c r="AB236" t="inlineStr">
+      <c r="AC236" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -23854,10 +24564,13 @@
       <c r="Z237">
         <v>159</v>
       </c>
-      <c r="AA237">
+      <c r="AA237" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB237">
         <v>0.3076796059781762</v>
       </c>
-      <c r="AB237" t="inlineStr">
+      <c r="AC237" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -23953,10 +24666,13 @@
       <c r="Z238">
         <v>159</v>
       </c>
-      <c r="AA238">
+      <c r="AA238" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB238">
         <v>0.1759424246259038</v>
       </c>
-      <c r="AB238" t="inlineStr">
+      <c r="AC238" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -24052,10 +24768,13 @@
       <c r="Z239">
         <v>159</v>
       </c>
-      <c r="AA239">
+      <c r="AA239" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB239">
         <v>0.2671037140901075</v>
       </c>
-      <c r="AB239" t="inlineStr">
+      <c r="AC239" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -24151,10 +24870,13 @@
       <c r="Z240">
         <v>159</v>
       </c>
-      <c r="AA240">
+      <c r="AA240" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB240">
         <v>0.1871690909148986</v>
       </c>
-      <c r="AB240" t="inlineStr">
+      <c r="AC240" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -24250,10 +24972,13 @@
       <c r="Z241">
         <v>159</v>
       </c>
-      <c r="AA241">
+      <c r="AA241" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB241">
         <v>0.29785105063326</v>
       </c>
-      <c r="AB241" t="inlineStr">
+      <c r="AC241" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -24349,10 +25074,13 @@
       <c r="Z242">
         <v>159</v>
       </c>
-      <c r="AA242">
+      <c r="AA242" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB242">
         <v>0.3093384752468625</v>
       </c>
-      <c r="AB242" t="inlineStr">
+      <c r="AC242" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -24448,10 +25176,13 @@
       <c r="Z243">
         <v>159</v>
       </c>
-      <c r="AA243">
+      <c r="AA243" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB243">
         <v>0.2250602481582831</v>
       </c>
-      <c r="AB243" t="inlineStr">
+      <c r="AC243" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -24547,10 +25278,13 @@
       <c r="Z244">
         <v>159</v>
       </c>
-      <c r="AA244">
+      <c r="AA244" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB244">
         <v>0.3717423450318951</v>
       </c>
-      <c r="AB244" t="inlineStr">
+      <c r="AC244" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -24646,10 +25380,13 @@
       <c r="Z245">
         <v>159</v>
       </c>
-      <c r="AA245">
+      <c r="AA245" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB245">
         <v>0.3280055964860377</v>
       </c>
-      <c r="AB245" t="inlineStr">
+      <c r="AC245" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -24745,10 +25482,13 @@
       <c r="Z246">
         <v>159</v>
       </c>
-      <c r="AA246">
+      <c r="AA246" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB246">
         <v>0.3055404763049385</v>
       </c>
-      <c r="AB246" t="inlineStr">
+      <c r="AC246" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -24844,10 +25584,13 @@
       <c r="Z247">
         <v>159</v>
       </c>
-      <c r="AA247">
+      <c r="AA247" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB247">
         <v>0.2211987574874402</v>
       </c>
-      <c r="AB247" t="inlineStr">
+      <c r="AC247" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -24943,10 +25686,13 @@
       <c r="Z248">
         <v>159</v>
       </c>
-      <c r="AA248">
+      <c r="AA248" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB248">
         <v>0.3693403033609837</v>
       </c>
-      <c r="AB248" t="inlineStr">
+      <c r="AC248" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -25042,10 +25788,13 @@
       <c r="Z249">
         <v>159</v>
       </c>
-      <c r="AA249">
+      <c r="AA249" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB249">
         <v>0.3193567033299172</v>
       </c>
-      <c r="AB249" t="inlineStr">
+      <c r="AC249" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -25141,10 +25890,13 @@
       <c r="Z250">
         <v>159</v>
       </c>
-      <c r="AA250">
+      <c r="AA250" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB250">
         <v>0.3531558728133207</v>
       </c>
-      <c r="AB250" t="inlineStr">
+      <c r="AC250" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -25240,10 +25992,13 @@
       <c r="Z251">
         <v>159</v>
       </c>
-      <c r="AA251">
+      <c r="AA251" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB251">
         <v>0.3204565734750286</v>
       </c>
-      <c r="AB251" t="inlineStr">
+      <c r="AC251" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -25339,10 +26094,13 @@
       <c r="Z252">
         <v>159</v>
       </c>
-      <c r="AA252">
+      <c r="AA252" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB252">
         <v>0.2294226949327357</v>
       </c>
-      <c r="AB252" t="inlineStr">
+      <c r="AC252" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -25438,10 +26196,13 @@
       <c r="Z253">
         <v>159</v>
       </c>
-      <c r="AA253">
+      <c r="AA253" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB253">
         <v>0.372902931885325</v>
       </c>
-      <c r="AB253" t="inlineStr">
+      <c r="AC253" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -25537,10 +26298,13 @@
       <c r="Z254">
         <v>159</v>
       </c>
-      <c r="AA254">
+      <c r="AA254" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB254">
         <v>0.3445203106362209</v>
       </c>
-      <c r="AB254" t="inlineStr">
+      <c r="AC254" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -25636,10 +26400,13 @@
       <c r="Z255">
         <v>159</v>
       </c>
-      <c r="AA255">
+      <c r="AA255" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB255">
         <v>0.3881943550592464</v>
       </c>
-      <c r="AB255" t="inlineStr">
+      <c r="AC255" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -25735,10 +26502,13 @@
       <c r="Z256">
         <v>159</v>
       </c>
-      <c r="AA256">
+      <c r="AA256" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB256">
         <v>0.3818707157935403</v>
       </c>
-      <c r="AB256" t="inlineStr">
+      <c r="AC256" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -25834,10 +26604,13 @@
       <c r="Z257">
         <v>159</v>
       </c>
-      <c r="AA257">
+      <c r="AA257" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB257">
         <v>0.3974400006866385</v>
       </c>
-      <c r="AB257" t="inlineStr">
+      <c r="AC257" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -25933,10 +26706,13 @@
       <c r="Z258">
         <v>159</v>
       </c>
-      <c r="AA258">
+      <c r="AA258" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB258">
         <v>0.02170756142701982</v>
       </c>
-      <c r="AB258" t="inlineStr">
+      <c r="AC258" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -26032,10 +26808,13 @@
       <c r="Z259">
         <v>159</v>
       </c>
-      <c r="AA259">
+      <c r="AA259" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB259">
         <v>0.02314381931084856</v>
       </c>
-      <c r="AB259" t="inlineStr">
+      <c r="AC259" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -26131,10 +26910,13 @@
       <c r="Z260">
         <v>159</v>
       </c>
-      <c r="AA260">
+      <c r="AA260" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB260">
         <v>0.02349739889801341</v>
       </c>
-      <c r="AB260" t="inlineStr">
+      <c r="AC260" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -26230,10 +27012,13 @@
       <c r="Z261">
         <v>159</v>
       </c>
-      <c r="AA261">
+      <c r="AA261" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB261">
         <v>0.07917981444599673</v>
       </c>
-      <c r="AB261" t="inlineStr">
+      <c r="AC261" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -26329,10 +27114,13 @@
       <c r="Z262">
         <v>159</v>
       </c>
-      <c r="AA262">
+      <c r="AA262" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB262">
         <v>0.05802320370855019</v>
       </c>
-      <c r="AB262" t="inlineStr">
+      <c r="AC262" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -26428,10 +27216,13 @@
       <c r="Z263">
         <v>159</v>
       </c>
-      <c r="AA263">
+      <c r="AA263" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB263">
         <v>0.1425642175382101</v>
       </c>
-      <c r="AB263" t="inlineStr">
+      <c r="AC263" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -26527,10 +27318,13 @@
       <c r="Z264">
         <v>159</v>
       </c>
-      <c r="AA264">
+      <c r="AA264" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB264">
         <v>0.04668111640714072</v>
       </c>
-      <c r="AB264" t="inlineStr">
+      <c r="AC264" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -26626,10 +27420,13 @@
       <c r="Z265">
         <v>159</v>
       </c>
-      <c r="AA265">
+      <c r="AA265" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB265">
         <v>0.02402318617663444</v>
       </c>
-      <c r="AB265" t="inlineStr">
+      <c r="AC265" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -26725,10 +27522,13 @@
       <c r="Z266">
         <v>159</v>
       </c>
-      <c r="AA266">
+      <c r="AA266" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB266">
         <v>0.08124057497162401</v>
       </c>
-      <c r="AB266" t="inlineStr">
+      <c r="AC266" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -26824,10 +27624,13 @@
       <c r="Z267">
         <v>159</v>
       </c>
-      <c r="AA267">
+      <c r="AA267" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB267">
         <v>0.06830864997936291</v>
       </c>
-      <c r="AB267" t="inlineStr">
+      <c r="AC267" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -26923,10 +27726,13 @@
       <c r="Z268">
         <v>159</v>
       </c>
-      <c r="AA268">
+      <c r="AA268" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB268">
         <v>0.1512208069270199</v>
       </c>
-      <c r="AB268" t="inlineStr">
+      <c r="AC268" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -27022,10 +27828,13 @@
       <c r="Z269">
         <v>159</v>
       </c>
-      <c r="AA269">
+      <c r="AA269" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB269">
         <v>0.05259860643066996</v>
       </c>
-      <c r="AB269" t="inlineStr">
+      <c r="AC269" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -27121,10 +27930,13 @@
       <c r="Z270">
         <v>159</v>
       </c>
-      <c r="AA270">
+      <c r="AA270" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB270">
         <v>0.08195637314718031</v>
       </c>
-      <c r="AB270" t="inlineStr">
+      <c r="AC270" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -27220,10 +28032,13 @@
       <c r="Z271">
         <v>159</v>
       </c>
-      <c r="AA271">
+      <c r="AA271" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB271">
         <v>0.06621162376380588</v>
       </c>
-      <c r="AB271" t="inlineStr">
+      <c r="AC271" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -27319,10 +28134,13 @@
       <c r="Z272">
         <v>159</v>
       </c>
-      <c r="AA272">
+      <c r="AA272" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB272">
         <v>0.1503497487445842</v>
       </c>
-      <c r="AB272" t="inlineStr">
+      <c r="AC272" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -27418,10 +28236,13 @@
       <c r="Z273">
         <v>159</v>
       </c>
-      <c r="AA273">
+      <c r="AA273" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB273">
         <v>0.05382860716270279</v>
       </c>
-      <c r="AB273" t="inlineStr">
+      <c r="AC273" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -27517,10 +28338,13 @@
       <c r="Z274">
         <v>159</v>
       </c>
-      <c r="AA274">
+      <c r="AA274" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB274">
         <v>0.1011082646505954</v>
       </c>
-      <c r="AB274" t="inlineStr">
+      <c r="AC274" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -27616,10 +28440,13 @@
       <c r="Z275">
         <v>159</v>
       </c>
-      <c r="AA275">
+      <c r="AA275" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB275">
         <v>0.2023642500996599</v>
       </c>
-      <c r="AB275" t="inlineStr">
+      <c r="AC275" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -27715,10 +28542,13 @@
       <c r="Z276">
         <v>159</v>
       </c>
-      <c r="AA276">
+      <c r="AA276" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB276">
         <v>0.1042403794665092</v>
       </c>
-      <c r="AB276" t="inlineStr">
+      <c r="AC276" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -27814,10 +28644,13 @@
       <c r="Z277">
         <v>159</v>
       </c>
-      <c r="AA277">
+      <c r="AA277" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB277">
         <v>0.1536149948691584</v>
       </c>
-      <c r="AB277" t="inlineStr">
+      <c r="AC277" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -27913,10 +28746,13 @@
       <c r="Z278">
         <v>159</v>
       </c>
-      <c r="AA278">
+      <c r="AA278" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB278">
         <v>0.0876434214118602</v>
       </c>
-      <c r="AB278" t="inlineStr">
+      <c r="AC278" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -28012,10 +28848,13 @@
       <c r="Z279">
         <v>159</v>
       </c>
-      <c r="AA279">
+      <c r="AA279" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB279">
         <v>0.1565965301673612</v>
       </c>
-      <c r="AB279" t="inlineStr">
+      <c r="AC279" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -28111,10 +28950,13 @@
       <c r="Z280">
         <v>159</v>
       </c>
-      <c r="AA280">
+      <c r="AA280" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB280">
         <v>0.08350940735299135</v>
       </c>
-      <c r="AB280" t="inlineStr">
+      <c r="AC280" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -28210,10 +29052,13 @@
       <c r="Z281">
         <v>159</v>
       </c>
-      <c r="AA281">
+      <c r="AA281" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB281">
         <v>0.07211508383150474</v>
       </c>
-      <c r="AB281" t="inlineStr">
+      <c r="AC281" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -28309,10 +29154,13 @@
       <c r="Z282">
         <v>159</v>
       </c>
-      <c r="AA282">
+      <c r="AA282" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB282">
         <v>0.1516667110949004</v>
       </c>
-      <c r="AB282" t="inlineStr">
+      <c r="AC282" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -28408,10 +29256,13 @@
       <c r="Z283">
         <v>159</v>
       </c>
-      <c r="AA283">
+      <c r="AA283" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB283">
         <v>0.05522509789407136</v>
       </c>
-      <c r="AB283" t="inlineStr">
+      <c r="AC283" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -28507,10 +29358,13 @@
       <c r="Z284">
         <v>159</v>
       </c>
-      <c r="AA284">
+      <c r="AA284" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB284">
         <v>0.1107135024332856</v>
       </c>
-      <c r="AB284" t="inlineStr">
+      <c r="AC284" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -28606,10 +29460,13 @@
       <c r="Z285">
         <v>159</v>
       </c>
-      <c r="AA285">
+      <c r="AA285" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB285">
         <v>0.2135795728029242</v>
       </c>
-      <c r="AB285" t="inlineStr">
+      <c r="AC285" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -28705,10 +29562,13 @@
       <c r="Z286">
         <v>159</v>
       </c>
-      <c r="AA286">
+      <c r="AA286" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB286">
         <v>0.1111399755650225</v>
       </c>
-      <c r="AB286" t="inlineStr">
+      <c r="AC286" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -28804,10 +29664,13 @@
       <c r="Z287">
         <v>159</v>
       </c>
-      <c r="AA287">
+      <c r="AA287" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB287">
         <v>0.1699063988028282</v>
       </c>
-      <c r="AB287" t="inlineStr">
+      <c r="AC287" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -28903,10 +29766,13 @@
       <c r="Z288">
         <v>159</v>
       </c>
-      <c r="AA288">
+      <c r="AA288" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB288">
         <v>0.1111789931380708</v>
       </c>
-      <c r="AB288" t="inlineStr">
+      <c r="AC288" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -29002,10 +29868,13 @@
       <c r="Z289">
         <v>159</v>
       </c>
-      <c r="AA289">
+      <c r="AA289" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB289">
         <v>0.1714883957843716</v>
       </c>
-      <c r="AB289" t="inlineStr">
+      <c r="AC289" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -29101,10 +29970,13 @@
       <c r="Z290">
         <v>159</v>
       </c>
-      <c r="AA290">
+      <c r="AA290" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB290">
         <v>0.1095763890277665</v>
       </c>
-      <c r="AB290" t="inlineStr">
+      <c r="AC290" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -29200,10 +30072,13 @@
       <c r="Z291">
         <v>159</v>
       </c>
-      <c r="AA291">
+      <c r="AA291" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB291">
         <v>0.2131352425817509</v>
       </c>
-      <c r="AB291" t="inlineStr">
+      <c r="AC291" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -29299,10 +30174,13 @@
       <c r="Z292">
         <v>159</v>
       </c>
-      <c r="AA292">
+      <c r="AA292" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB292">
         <v>0.1129296483205674</v>
       </c>
-      <c r="AB292" t="inlineStr">
+      <c r="AC292" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -29398,10 +30276,13 @@
       <c r="Z293">
         <v>159</v>
       </c>
-      <c r="AA293">
+      <c r="AA293" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB293">
         <v>0.1664870722934286</v>
       </c>
-      <c r="AB293" t="inlineStr">
+      <c r="AC293" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -29497,10 +30378,13 @@
       <c r="Z294">
         <v>159</v>
       </c>
-      <c r="AA294">
+      <c r="AA294" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB294">
         <v>0.1082576962594972</v>
       </c>
-      <c r="AB294" t="inlineStr">
+      <c r="AC294" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -29596,10 +30480,13 @@
       <c r="Z295">
         <v>159</v>
       </c>
-      <c r="AA295">
+      <c r="AA295" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB295">
         <v>0.170994599933561</v>
       </c>
-      <c r="AB295" t="inlineStr">
+      <c r="AC295" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -29695,10 +30582,13 @@
       <c r="Z296">
         <v>159</v>
       </c>
-      <c r="AA296">
+      <c r="AA296" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB296">
         <v>0.2058854617428386</v>
       </c>
-      <c r="AB296" t="inlineStr">
+      <c r="AC296" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -29794,10 +30684,13 @@
       <c r="Z297">
         <v>159</v>
       </c>
-      <c r="AA297">
+      <c r="AA297" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB297">
         <v>0.1301267874705113</v>
       </c>
-      <c r="AB297" t="inlineStr">
+      <c r="AC297" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -29893,10 +30786,13 @@
       <c r="Z298">
         <v>159</v>
       </c>
-      <c r="AA298">
+      <c r="AA298" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB298">
         <v>0.2157557058534702</v>
       </c>
-      <c r="AB298" t="inlineStr">
+      <c r="AC298" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -29992,10 +30888,13 @@
       <c r="Z299">
         <v>159</v>
       </c>
-      <c r="AA299">
+      <c r="AA299" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB299">
         <v>0.1705853535517891</v>
       </c>
-      <c r="AB299" t="inlineStr">
+      <c r="AC299" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -30091,10 +30990,13 @@
       <c r="Z300">
         <v>159</v>
       </c>
-      <c r="AA300">
+      <c r="AA300" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB300">
         <v>0.1116865717938096</v>
       </c>
-      <c r="AB300" t="inlineStr">
+      <c r="AC300" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -30190,10 +31092,13 @@
       <c r="Z301">
         <v>159</v>
       </c>
-      <c r="AA301">
+      <c r="AA301" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB301">
         <v>0.2135943476266653</v>
       </c>
-      <c r="AB301" t="inlineStr">
+      <c r="AC301" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -30289,10 +31194,13 @@
       <c r="Z302">
         <v>159</v>
       </c>
-      <c r="AA302">
+      <c r="AA302" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB302">
         <v>0.1155871019715566</v>
       </c>
-      <c r="AB302" t="inlineStr">
+      <c r="AC302" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -30388,10 +31296,13 @@
       <c r="Z303">
         <v>159</v>
       </c>
-      <c r="AA303">
+      <c r="AA303" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB303">
         <v>0.1763527090713655</v>
       </c>
-      <c r="AB303" t="inlineStr">
+      <c r="AC303" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -30487,10 +31398,13 @@
       <c r="Z304">
         <v>159</v>
       </c>
-      <c r="AA304">
+      <c r="AA304" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB304">
         <v>0.1134704607119215</v>
       </c>
-      <c r="AB304" t="inlineStr">
+      <c r="AC304" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -30586,10 +31500,13 @@
       <c r="Z305">
         <v>159</v>
       </c>
-      <c r="AA305">
+      <c r="AA305" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB305">
         <v>0.1714909848757901</v>
       </c>
-      <c r="AB305" t="inlineStr">
+      <c r="AC305" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -30685,10 +31602,13 @@
       <c r="Z306">
         <v>159</v>
       </c>
-      <c r="AA306">
+      <c r="AA306" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB306">
         <v>0.2224548905435478</v>
       </c>
-      <c r="AB306" t="inlineStr">
+      <c r="AC306" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -30784,10 +31704,13 @@
       <c r="Z307">
         <v>159</v>
       </c>
-      <c r="AA307">
+      <c r="AA307" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB307">
         <v>0.1521121160232667</v>
       </c>
-      <c r="AB307" t="inlineStr">
+      <c r="AC307" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -30883,10 +31806,13 @@
       <c r="Z308">
         <v>159</v>
       </c>
-      <c r="AA308">
+      <c r="AA308" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB308">
         <v>0.2334230036394843</v>
       </c>
-      <c r="AB308" t="inlineStr">
+      <c r="AC308" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -30982,10 +31908,13 @@
       <c r="Z309">
         <v>159</v>
       </c>
-      <c r="AA309">
+      <c r="AA309" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB309">
         <v>0.1986242759885445</v>
       </c>
-      <c r="AB309" t="inlineStr">
+      <c r="AC309" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31081,10 +32010,13 @@
       <c r="Z310">
         <v>159</v>
       </c>
-      <c r="AA310">
+      <c r="AA310" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB310">
         <v>0.2202136143429992</v>
       </c>
-      <c r="AB310" t="inlineStr">
+      <c r="AC310" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31180,10 +32112,13 @@
       <c r="Z311">
         <v>159</v>
       </c>
-      <c r="AA311">
+      <c r="AA311" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB311">
         <v>0.1504940612938679</v>
       </c>
-      <c r="AB311" t="inlineStr">
+      <c r="AC311" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31279,10 +32214,13 @@
       <c r="Z312">
         <v>159</v>
       </c>
-      <c r="AA312">
+      <c r="AA312" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB312">
         <v>0.2335193637494552</v>
       </c>
-      <c r="AB312" t="inlineStr">
+      <c r="AC312" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31378,10 +32316,13 @@
       <c r="Z313">
         <v>159</v>
       </c>
-      <c r="AA313">
+      <c r="AA313" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB313">
         <v>0.1943665141520972</v>
       </c>
-      <c r="AB313" t="inlineStr">
+      <c r="AC313" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31477,10 +32418,13 @@
       <c r="Z314">
         <v>159</v>
       </c>
-      <c r="AA314">
+      <c r="AA314" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB314">
         <v>0.2210971801140255</v>
       </c>
-      <c r="AB314" t="inlineStr">
+      <c r="AC314" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31576,10 +32520,13 @@
       <c r="Z315">
         <v>159</v>
       </c>
-      <c r="AA315">
+      <c r="AA315" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB315">
         <v>0.2247931156143496</v>
       </c>
-      <c r="AB315" t="inlineStr">
+      <c r="AC315" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31675,10 +32622,13 @@
       <c r="Z316">
         <v>159</v>
       </c>
-      <c r="AA316">
+      <c r="AA316" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB316">
         <v>0.1526337591768662</v>
       </c>
-      <c r="AB316" t="inlineStr">
+      <c r="AC316" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31774,10 +32724,13 @@
       <c r="Z317">
         <v>159</v>
       </c>
-      <c r="AA317">
+      <c r="AA317" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB317">
         <v>0.2336050014651973</v>
       </c>
-      <c r="AB317" t="inlineStr">
+      <c r="AC317" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31873,10 +32826,13 @@
       <c r="Z318">
         <v>159</v>
       </c>
-      <c r="AA318">
+      <c r="AA318" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB318">
         <v>0.2032159837806002</v>
       </c>
-      <c r="AB318" t="inlineStr">
+      <c r="AC318" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -31972,10 +32928,13 @@
       <c r="Z319">
         <v>159</v>
       </c>
-      <c r="AA319">
+      <c r="AA319" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB319">
         <v>0.2484905502018388</v>
       </c>
-      <c r="AB319" t="inlineStr">
+      <c r="AC319" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -32071,10 +33030,13 @@
       <c r="Z320">
         <v>159</v>
       </c>
-      <c r="AA320">
+      <c r="AA320" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB320">
         <v>0.2457119436887673</v>
       </c>
-      <c r="AB320" t="inlineStr">
+      <c r="AC320" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -32170,10 +33132,13 @@
       <c r="Z321">
         <v>159</v>
       </c>
-      <c r="AA321">
+      <c r="AA321" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB321">
         <v>0.250139879762935</v>
       </c>
-      <c r="AB321" t="inlineStr">
+      <c r="AC321" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -32269,10 +33234,13 @@
       <c r="Z322">
         <v>159</v>
       </c>
-      <c r="AA322">
+      <c r="AA322" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB322">
         <v>0.02940970194930575</v>
       </c>
-      <c r="AB322" t="inlineStr">
+      <c r="AC322" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -32368,10 +33336,13 @@
       <c r="Z323">
         <v>159</v>
       </c>
-      <c r="AA323">
+      <c r="AA323" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB323">
         <v>0.02947835150282333</v>
       </c>
-      <c r="AB323" t="inlineStr">
+      <c r="AC323" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -32467,10 +33438,13 @@
       <c r="Z324">
         <v>159</v>
       </c>
-      <c r="AA324">
+      <c r="AA324" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB324">
         <v>0.02941071427525954</v>
       </c>
-      <c r="AB324" t="inlineStr">
+      <c r="AC324" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -32566,10 +33540,13 @@
       <c r="Z325">
         <v>159</v>
       </c>
-      <c r="AA325">
+      <c r="AA325" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB325">
         <v>0.08564120447088504</v>
       </c>
-      <c r="AB325" t="inlineStr">
+      <c r="AC325" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -32665,10 +33642,13 @@
       <c r="Z326">
         <v>159</v>
       </c>
-      <c r="AA326">
+      <c r="AA326" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB326">
         <v>0.06656280598761534</v>
       </c>
-      <c r="AB326" t="inlineStr">
+      <c r="AC326" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -32764,10 +33744,13 @@
       <c r="Z327">
         <v>159</v>
       </c>
-      <c r="AA327">
+      <c r="AA327" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB327">
         <v>0.24541040897399</v>
       </c>
-      <c r="AB327" t="inlineStr">
+      <c r="AC327" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -32863,10 +33846,13 @@
       <c r="Z328">
         <v>159</v>
       </c>
-      <c r="AA328">
+      <c r="AA328" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB328">
         <v>0.1357405542468746</v>
       </c>
-      <c r="AB328" t="inlineStr">
+      <c r="AC328" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -32962,10 +33948,13 @@
       <c r="Z329">
         <v>159</v>
       </c>
-      <c r="AA329">
+      <c r="AA329" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB329">
         <v>0.03133460899688009</v>
       </c>
-      <c r="AB329" t="inlineStr">
+      <c r="AC329" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -33061,10 +34050,13 @@
       <c r="Z330">
         <v>159</v>
       </c>
-      <c r="AA330">
+      <c r="AA330" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB330">
         <v>0.08569261946456556</v>
       </c>
-      <c r="AB330" t="inlineStr">
+      <c r="AC330" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -33160,10 +34152,13 @@
       <c r="Z331">
         <v>159</v>
       </c>
-      <c r="AA331">
+      <c r="AA331" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB331">
         <v>0.07142483174746253</v>
       </c>
-      <c r="AB331" t="inlineStr">
+      <c r="AC331" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -33259,10 +34254,13 @@
       <c r="Z332">
         <v>159</v>
       </c>
-      <c r="AA332">
+      <c r="AA332" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB332">
         <v>0.2517745286061934</v>
       </c>
-      <c r="AB332" t="inlineStr">
+      <c r="AC332" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -33358,10 +34356,13 @@
       <c r="Z333">
         <v>159</v>
       </c>
-      <c r="AA333">
+      <c r="AA333" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB333">
         <v>0.143606102615797</v>
       </c>
-      <c r="AB333" t="inlineStr">
+      <c r="AC333" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -33457,10 +34458,13 @@
       <c r="Z334">
         <v>159</v>
       </c>
-      <c r="AA334">
+      <c r="AA334" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB334">
         <v>0.08565001595113321</v>
       </c>
-      <c r="AB334" t="inlineStr">
+      <c r="AC334" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -33556,10 +34560,13 @@
       <c r="Z335">
         <v>159</v>
       </c>
-      <c r="AA335">
+      <c r="AA335" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB335">
         <v>0.06875730770595312</v>
       </c>
-      <c r="AB335" t="inlineStr">
+      <c r="AC335" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -33655,10 +34662,13 @@
       <c r="Z336">
         <v>159</v>
       </c>
-      <c r="AA336">
+      <c r="AA336" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB336">
         <v>0.248711329702404</v>
       </c>
-      <c r="AB336" t="inlineStr">
+      <c r="AC336" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -33754,10 +34764,13 @@
       <c r="Z337">
         <v>159</v>
       </c>
-      <c r="AA337">
+      <c r="AA337" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB337">
         <v>0.143190869369209</v>
       </c>
-      <c r="AB337" t="inlineStr">
+      <c r="AC337" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -33853,10 +34866,13 @@
       <c r="Z338">
         <v>159</v>
       </c>
-      <c r="AA338">
+      <c r="AA338" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB338">
         <v>0.1071095801713165</v>
       </c>
-      <c r="AB338" t="inlineStr">
+      <c r="AC338" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -33952,10 +34968,13 @@
       <c r="Z339">
         <v>159</v>
       </c>
-      <c r="AA339">
+      <c r="AA339" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB339">
         <v>0.3061879629550859</v>
       </c>
-      <c r="AB339" t="inlineStr">
+      <c r="AC339" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -34051,10 +35070,13 @@
       <c r="Z340">
         <v>159</v>
       </c>
-      <c r="AA340">
+      <c r="AA340" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB340">
         <v>0.1976845062559641</v>
       </c>
-      <c r="AB340" t="inlineStr">
+      <c r="AC340" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -34150,10 +35172,13 @@
       <c r="Z341">
         <v>159</v>
       </c>
-      <c r="AA341">
+      <c r="AA341" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB341">
         <v>0.2519106500880403</v>
       </c>
-      <c r="AB341" t="inlineStr">
+      <c r="AC341" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -34249,10 +35274,13 @@
       <c r="Z342">
         <v>159</v>
       </c>
-      <c r="AA342">
+      <c r="AA342" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB342">
         <v>0.1877956444763657</v>
       </c>
-      <c r="AB342" t="inlineStr">
+      <c r="AC342" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -34348,10 +35376,13 @@
       <c r="Z343">
         <v>159</v>
       </c>
-      <c r="AA343">
+      <c r="AA343" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB343">
         <v>0.3411837919194388</v>
       </c>
-      <c r="AB343" t="inlineStr">
+      <c r="AC343" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -34447,10 +35478,13 @@
       <c r="Z344">
         <v>159</v>
       </c>
-      <c r="AA344">
+      <c r="AA344" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB344">
         <v>0.08630014694880331</v>
       </c>
-      <c r="AB344" t="inlineStr">
+      <c r="AC344" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -34546,10 +35580,13 @@
       <c r="Z345">
         <v>159</v>
       </c>
-      <c r="AA345">
+      <c r="AA345" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB345">
         <v>0.09159710630992371</v>
       </c>
-      <c r="AB345" t="inlineStr">
+      <c r="AC345" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -34645,10 +35682,13 @@
       <c r="Z346">
         <v>159</v>
       </c>
-      <c r="AA346">
+      <c r="AA346" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB346">
         <v>0.2683620391005573</v>
       </c>
-      <c r="AB346" t="inlineStr">
+      <c r="AC346" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -34744,10 +35784,13 @@
       <c r="Z347">
         <v>159</v>
       </c>
-      <c r="AA347">
+      <c r="AA347" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB347">
         <v>0.1436452422843245</v>
       </c>
-      <c r="AB347" t="inlineStr">
+      <c r="AC347" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -34843,10 +35886,13 @@
       <c r="Z348">
         <v>159</v>
       </c>
-      <c r="AA348">
+      <c r="AA348" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB348">
         <v>0.1102615000432059</v>
       </c>
-      <c r="AB348" t="inlineStr">
+      <c r="AC348" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -34942,10 +35988,13 @@
       <c r="Z349">
         <v>159</v>
       </c>
-      <c r="AA349">
+      <c r="AA349" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB349">
         <v>0.3133299446433823</v>
       </c>
-      <c r="AB349" t="inlineStr">
+      <c r="AC349" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -35041,10 +36090,13 @@
       <c r="Z350">
         <v>159</v>
       </c>
-      <c r="AA350">
+      <c r="AA350" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB350">
         <v>0.2050523411859828</v>
       </c>
-      <c r="AB350" t="inlineStr">
+      <c r="AC350" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -35140,10 +36192,13 @@
       <c r="Z351">
         <v>159</v>
       </c>
-      <c r="AA351">
+      <c r="AA351" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB351">
         <v>0.263180442448197</v>
       </c>
-      <c r="AB351" t="inlineStr">
+      <c r="AC351" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -35239,10 +36294,13 @@
       <c r="Z352">
         <v>159</v>
       </c>
-      <c r="AA352">
+      <c r="AA352" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB352">
         <v>0.2188850053331114</v>
       </c>
-      <c r="AB352" t="inlineStr">
+      <c r="AC352" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -35338,10 +36396,13 @@
       <c r="Z353">
         <v>159</v>
       </c>
-      <c r="AA353">
+      <c r="AA353" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB353">
         <v>0.3659240038918468</v>
       </c>
-      <c r="AB353" t="inlineStr">
+      <c r="AC353" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -35437,10 +36498,13 @@
       <c r="Z354">
         <v>159</v>
       </c>
-      <c r="AA354">
+      <c r="AA354" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB354">
         <v>0.1086428631430294</v>
       </c>
-      <c r="AB354" t="inlineStr">
+      <c r="AC354" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -35536,10 +36600,13 @@
       <c r="Z355">
         <v>159</v>
       </c>
-      <c r="AA355">
+      <c r="AA355" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB355">
         <v>0.3104470716632494</v>
       </c>
-      <c r="AB355" t="inlineStr">
+      <c r="AC355" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -35635,10 +36702,13 @@
       <c r="Z356">
         <v>159</v>
       </c>
-      <c r="AA356">
+      <c r="AA356" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB356">
         <v>0.2050904174944519</v>
       </c>
-      <c r="AB356" t="inlineStr">
+      <c r="AC356" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -35734,10 +36804,13 @@
       <c r="Z357">
         <v>159</v>
       </c>
-      <c r="AA357">
+      <c r="AA357" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB357">
         <v>0.2576906818249635</v>
       </c>
-      <c r="AB357" t="inlineStr">
+      <c r="AC357" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -35833,10 +36906,13 @@
       <c r="Z358">
         <v>159</v>
       </c>
-      <c r="AA358">
+      <c r="AA358" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB358">
         <v>0.2112115091602662</v>
       </c>
-      <c r="AB358" t="inlineStr">
+      <c r="AC358" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -35932,10 +37008,13 @@
       <c r="Z359">
         <v>159</v>
       </c>
-      <c r="AA359">
+      <c r="AA359" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB359">
         <v>0.3606355807940252</v>
       </c>
-      <c r="AB359" t="inlineStr">
+      <c r="AC359" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -36031,10 +37110,13 @@
       <c r="Z360">
         <v>159</v>
       </c>
-      <c r="AA360">
+      <c r="AA360" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB360">
         <v>0.3069461506379507</v>
       </c>
-      <c r="AB360" t="inlineStr">
+      <c r="AC360" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -36130,10 +37212,13 @@
       <c r="Z361">
         <v>159</v>
       </c>
-      <c r="AA361">
+      <c r="AA361" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB361">
         <v>0.2308511619702495</v>
       </c>
-      <c r="AB361" t="inlineStr">
+      <c r="AC361" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -36229,10 +37314,13 @@
       <c r="Z362">
         <v>159</v>
       </c>
-      <c r="AA362">
+      <c r="AA362" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB362">
         <v>0.4048972767589511</v>
       </c>
-      <c r="AB362" t="inlineStr">
+      <c r="AC362" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -36328,10 +37416,13 @@
       <c r="Z363">
         <v>159</v>
       </c>
-      <c r="AA363">
+      <c r="AA363" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB363">
         <v>0.3550497213698357</v>
       </c>
-      <c r="AB363" t="inlineStr">
+      <c r="AC363" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -36427,10 +37518,13 @@
       <c r="Z364">
         <v>159</v>
       </c>
-      <c r="AA364">
+      <c r="AA364" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB364">
         <v>0.1216387703581917</v>
       </c>
-      <c r="AB364" t="inlineStr">
+      <c r="AC364" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -36526,10 +37620,13 @@
       <c r="Z365">
         <v>159</v>
       </c>
-      <c r="AA365">
+      <c r="AA365" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB365">
         <v>0.3252984964221906</v>
       </c>
-      <c r="AB365" t="inlineStr">
+      <c r="AC365" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -36625,10 +37722,13 @@
       <c r="Z366">
         <v>159</v>
       </c>
-      <c r="AA366">
+      <c r="AA366" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB366">
         <v>0.2051276260730009</v>
       </c>
-      <c r="AB366" t="inlineStr">
+      <c r="AC366" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -36724,10 +37824,13 @@
       <c r="Z367">
         <v>159</v>
       </c>
-      <c r="AA367">
+      <c r="AA367" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB367">
         <v>0.2979455589910699</v>
       </c>
-      <c r="AB367" t="inlineStr">
+      <c r="AC367" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -36823,10 +37926,13 @@
       <c r="Z368">
         <v>159</v>
       </c>
-      <c r="AA368">
+      <c r="AA368" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB368">
         <v>0.2356740561436511</v>
       </c>
-      <c r="AB368" t="inlineStr">
+      <c r="AC368" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -36922,10 +38028,13 @@
       <c r="Z369">
         <v>159</v>
       </c>
-      <c r="AA369">
+      <c r="AA369" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB369">
         <v>0.3743695594913267</v>
       </c>
-      <c r="AB369" t="inlineStr">
+      <c r="AC369" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -37021,10 +38130,13 @@
       <c r="Z370">
         <v>159</v>
       </c>
-      <c r="AA370">
+      <c r="AA370" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB370">
         <v>0.3162470150680292</v>
       </c>
-      <c r="AB370" t="inlineStr">
+      <c r="AC370" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -37120,10 +38232,13 @@
       <c r="Z371">
         <v>159</v>
       </c>
-      <c r="AA371">
+      <c r="AA371" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB371">
         <v>0.2562990267818261</v>
       </c>
-      <c r="AB371" t="inlineStr">
+      <c r="AC371" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -37219,10 +38334,13 @@
       <c r="Z372">
         <v>159</v>
       </c>
-      <c r="AA372">
+      <c r="AA372" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB372">
         <v>0.430180435499164</v>
       </c>
-      <c r="AB372" t="inlineStr">
+      <c r="AC372" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -37318,10 +38436,13 @@
       <c r="Z373">
         <v>159</v>
       </c>
-      <c r="AA373">
+      <c r="AA373" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB373">
         <v>0.3969798964703316</v>
       </c>
-      <c r="AB373" t="inlineStr">
+      <c r="AC373" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -37417,10 +38538,13 @@
       <c r="Z374">
         <v>159</v>
       </c>
-      <c r="AA374">
+      <c r="AA374" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB374">
         <v>0.3122558575794547</v>
       </c>
-      <c r="AB374" t="inlineStr">
+      <c r="AC374" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -37516,10 +38640,13 @@
       <c r="Z375">
         <v>159</v>
       </c>
-      <c r="AA375">
+      <c r="AA375" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB375">
         <v>0.2508088825986322</v>
       </c>
-      <c r="AB375" t="inlineStr">
+      <c r="AC375" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -37615,10 +38742,13 @@
       <c r="Z376">
         <v>159</v>
       </c>
-      <c r="AA376">
+      <c r="AA376" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB376">
         <v>0.4255941983568098</v>
       </c>
-      <c r="AB376" t="inlineStr">
+      <c r="AC376" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -37714,10 +38844,13 @@
       <c r="Z377">
         <v>159</v>
       </c>
-      <c r="AA377">
+      <c r="AA377" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB377">
         <v>0.3853910290492132</v>
       </c>
-      <c r="AB377" t="inlineStr">
+      <c r="AC377" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -37813,10 +38946,13 @@
       <c r="Z378">
         <v>159</v>
       </c>
-      <c r="AA378">
+      <c r="AA378" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB378">
         <v>0.4091649826332582</v>
       </c>
-      <c r="AB378" t="inlineStr">
+      <c r="AC378" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -37912,10 +39048,13 @@
       <c r="Z379">
         <v>159</v>
       </c>
-      <c r="AA379">
+      <c r="AA379" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB379">
         <v>0.337789866247943</v>
       </c>
-      <c r="AB379" t="inlineStr">
+      <c r="AC379" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -38011,10 +39150,13 @@
       <c r="Z380">
         <v>159</v>
       </c>
-      <c r="AA380">
+      <c r="AA380" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB380">
         <v>0.2666841059400983</v>
       </c>
-      <c r="AB380" t="inlineStr">
+      <c r="AC380" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -38110,10 +39252,13 @@
       <c r="Z381">
         <v>159</v>
       </c>
-      <c r="AA381">
+      <c r="AA381" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB381">
         <v>0.4359361790530639</v>
       </c>
-      <c r="AB381" t="inlineStr">
+      <c r="AC381" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -38209,10 +39354,13 @@
       <c r="Z382">
         <v>159</v>
       </c>
-      <c r="AA382">
+      <c r="AA382" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB382">
         <v>0.4269169569138697</v>
       </c>
-      <c r="AB382" t="inlineStr">
+      <c r="AC382" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -38308,10 +39456,13 @@
       <c r="Z383">
         <v>159</v>
       </c>
-      <c r="AA383">
+      <c r="AA383" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB383">
         <v>0.4454137201703058</v>
       </c>
-      <c r="AB383" t="inlineStr">
+      <c r="AC383" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -38407,10 +39558,13 @@
       <c r="Z384">
         <v>159</v>
       </c>
-      <c r="AA384">
+      <c r="AA384" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB384">
         <v>0.4366002482368298</v>
       </c>
-      <c r="AB384" t="inlineStr">
+      <c r="AC384" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -38506,10 +39660,13 @@
       <c r="Z385">
         <v>159</v>
       </c>
-      <c r="AA385">
+      <c r="AA385" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB385">
         <v>0.4652046166217608</v>
       </c>
-      <c r="AB385" t="inlineStr">
+      <c r="AC385" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -38605,10 +39762,13 @@
       <c r="Z386">
         <v>159</v>
       </c>
-      <c r="AA386">
+      <c r="AA386" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB386">
         <v>0.1088126931953216</v>
       </c>
-      <c r="AB386" t="inlineStr">
+      <c r="AC386" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -38704,10 +39864,13 @@
       <c r="Z387">
         <v>159</v>
       </c>
-      <c r="AA387">
+      <c r="AA387" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB387">
         <v>0.1090444547954303</v>
       </c>
-      <c r="AB387" t="inlineStr">
+      <c r="AC387" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -38803,10 +39966,13 @@
       <c r="Z388">
         <v>159</v>
       </c>
-      <c r="AA388">
+      <c r="AA388" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB388">
         <v>0.1090766393908379</v>
       </c>
-      <c r="AB388" t="inlineStr">
+      <c r="AC388" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -38902,10 +40068,13 @@
       <c r="Z389">
         <v>159</v>
       </c>
-      <c r="AA389">
+      <c r="AA389" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB389">
         <v>0.1970079337735434</v>
       </c>
-      <c r="AB389" t="inlineStr">
+      <c r="AC389" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39001,10 +40170,13 @@
       <c r="Z390">
         <v>159</v>
       </c>
-      <c r="AA390">
+      <c r="AA390" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB390">
         <v>0.1634658279399078</v>
       </c>
-      <c r="AB390" t="inlineStr">
+      <c r="AC390" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39100,10 +40272,13 @@
       <c r="Z391">
         <v>159</v>
       </c>
-      <c r="AA391">
+      <c r="AA391" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB391">
         <v>0.2738880330476791</v>
       </c>
-      <c r="AB391" t="inlineStr">
+      <c r="AC391" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39199,10 +40374,13 @@
       <c r="Z392">
         <v>159</v>
       </c>
-      <c r="AA392">
+      <c r="AA392" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB392">
         <v>0.1677075937409952</v>
       </c>
-      <c r="AB392" t="inlineStr">
+      <c r="AC392" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39298,10 +40476,13 @@
       <c r="Z393">
         <v>159</v>
       </c>
-      <c r="AA393">
+      <c r="AA393" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB393">
         <v>0.1091008552410725</v>
       </c>
-      <c r="AB393" t="inlineStr">
+      <c r="AC393" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -39397,10 +40578,13 @@
       <c r="Z394">
         <v>159</v>
       </c>
-      <c r="AA394">
+      <c r="AA394" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB394">
         <v>0.1972044874401237</v>
       </c>
-      <c r="AB394" t="inlineStr">
+      <c r="AC394" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39496,10 +40680,13 @@
       <c r="Z395">
         <v>159</v>
       </c>
-      <c r="AA395">
+      <c r="AA395" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB395">
         <v>0.167192260807991</v>
       </c>
-      <c r="AB395" t="inlineStr">
+      <c r="AC395" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39595,10 +40782,13 @@
       <c r="Z396">
         <v>159</v>
       </c>
-      <c r="AA396">
+      <c r="AA396" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB396">
         <v>0.2756376002978527</v>
       </c>
-      <c r="AB396" t="inlineStr">
+      <c r="AC396" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39694,10 +40884,13 @@
       <c r="Z397">
         <v>159</v>
       </c>
-      <c r="AA397">
+      <c r="AA397" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB397">
         <v>0.1692917748534246</v>
       </c>
-      <c r="AB397" t="inlineStr">
+      <c r="AC397" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39793,10 +40986,13 @@
       <c r="Z398">
         <v>159</v>
       </c>
-      <c r="AA398">
+      <c r="AA398" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB398">
         <v>0.1971295845213395</v>
       </c>
-      <c r="AB398" t="inlineStr">
+      <c r="AC398" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39892,10 +41088,13 @@
       <c r="Z399">
         <v>159</v>
       </c>
-      <c r="AA399">
+      <c r="AA399" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB399">
         <v>0.1652595641042348</v>
       </c>
-      <c r="AB399" t="inlineStr">
+      <c r="AC399" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -39991,10 +41190,13 @@
       <c r="Z400">
         <v>159</v>
       </c>
-      <c r="AA400">
+      <c r="AA400" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB400">
         <v>0.2747201950456236</v>
       </c>
-      <c r="AB400" t="inlineStr">
+      <c r="AC400" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -40090,10 +41292,13 @@
       <c r="Z401">
         <v>159</v>
       </c>
-      <c r="AA401">
+      <c r="AA401" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB401">
         <v>0.1695219758687612</v>
       </c>
-      <c r="AB401" t="inlineStr">
+      <c r="AC401" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -40189,10 +41394,13 @@
       <c r="Z402">
         <v>159</v>
       </c>
-      <c r="AA402">
+      <c r="AA402" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB402">
         <v>0.2294544898886156</v>
       </c>
-      <c r="AB402" t="inlineStr">
+      <c r="AC402" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -40288,10 +41496,13 @@
       <c r="Z403">
         <v>159</v>
       </c>
-      <c r="AA403">
+      <c r="AA403" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB403">
         <v>0.3666261809712129</v>
       </c>
-      <c r="AB403" t="inlineStr">
+      <c r="AC403" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -40387,10 +41598,13 @@
       <c r="Z404">
         <v>159</v>
       </c>
-      <c r="AA404">
+      <c r="AA404" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB404">
         <v>0.2584604181368317</v>
       </c>
-      <c r="AB404" t="inlineStr">
+      <c r="AC404" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -40486,10 +41700,13 @@
       <c r="Z405">
         <v>159</v>
       </c>
-      <c r="AA405">
+      <c r="AA405" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB405">
         <v>0.2934203184099639</v>
       </c>
-      <c r="AB405" t="inlineStr">
+      <c r="AC405" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -40585,10 +41802,13 @@
       <c r="Z406">
         <v>159</v>
       </c>
-      <c r="AA406">
+      <c r="AA406" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB406">
         <v>0.2345085397353908</v>
       </c>
-      <c r="AB406" t="inlineStr">
+      <c r="AC406" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -40684,10 +41904,13 @@
       <c r="Z407">
         <v>159</v>
       </c>
-      <c r="AA407">
+      <c r="AA407" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB407">
         <v>0.3197129763924768</v>
       </c>
-      <c r="AB407" t="inlineStr">
+      <c r="AC407" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -40783,10 +42006,13 @@
       <c r="Z408">
         <v>159</v>
       </c>
-      <c r="AA408">
+      <c r="AA408" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB408">
         <v>0.1974994150386948</v>
       </c>
-      <c r="AB408" t="inlineStr">
+      <c r="AC408" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -40882,10 +42108,13 @@
       <c r="Z409">
         <v>159</v>
       </c>
-      <c r="AA409">
+      <c r="AA409" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB409">
         <v>0.1808575985182356</v>
       </c>
-      <c r="AB409" t="inlineStr">
+      <c r="AC409" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -40981,10 +42210,13 @@
       <c r="Z410">
         <v>159</v>
       </c>
-      <c r="AA410">
+      <c r="AA410" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB410">
         <v>0.2815119504053847</v>
       </c>
-      <c r="AB410" t="inlineStr">
+      <c r="AC410" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -41080,10 +42312,13 @@
       <c r="Z411">
         <v>159</v>
       </c>
-      <c r="AA411">
+      <c r="AA411" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB411">
         <v>0.1696942179885757</v>
       </c>
-      <c r="AB411" t="inlineStr">
+      <c r="AC411" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -41179,10 +42414,13 @@
       <c r="Z412">
         <v>159</v>
       </c>
-      <c r="AA412">
+      <c r="AA412" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB412">
         <v>0.231697328660842</v>
       </c>
-      <c r="AB412" t="inlineStr">
+      <c r="AC412" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -41278,10 +42516,13 @@
       <c r="Z413">
         <v>159</v>
       </c>
-      <c r="AA413">
+      <c r="AA413" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB413">
         <v>0.3689236909933971</v>
       </c>
-      <c r="AB413" t="inlineStr">
+      <c r="AC413" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -41377,10 +42618,13 @@
       <c r="Z414">
         <v>159</v>
       </c>
-      <c r="AA414">
+      <c r="AA414" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB414">
         <v>0.2600504138430046</v>
       </c>
-      <c r="AB414" t="inlineStr">
+      <c r="AC414" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -41476,10 +42720,13 @@
       <c r="Z415">
         <v>159</v>
       </c>
-      <c r="AA415">
+      <c r="AA415" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB415">
         <v>0.3008497098406233</v>
       </c>
-      <c r="AB415" t="inlineStr">
+      <c r="AC415" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -41575,10 +42822,13 @@
       <c r="Z416">
         <v>159</v>
       </c>
-      <c r="AA416">
+      <c r="AA416" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB416">
         <v>0.2533770565464273</v>
       </c>
-      <c r="AB416" t="inlineStr">
+      <c r="AC416" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -41674,10 +42924,13 @@
       <c r="Z417">
         <v>159</v>
       </c>
-      <c r="AA417">
+      <c r="AA417" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB417">
         <v>0.3278165577207758</v>
       </c>
-      <c r="AB417" t="inlineStr">
+      <c r="AC417" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -41773,10 +43026,13 @@
       <c r="Z418">
         <v>159</v>
       </c>
-      <c r="AA418">
+      <c r="AA418" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB418">
         <v>0.2307378958050373</v>
       </c>
-      <c r="AB418" t="inlineStr">
+      <c r="AC418" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -41872,10 +43128,13 @@
       <c r="Z419">
         <v>159</v>
       </c>
-      <c r="AA419">
+      <c r="AA419" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB419">
         <v>0.3681319700677643</v>
       </c>
-      <c r="AB419" t="inlineStr">
+      <c r="AC419" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -41971,10 +43230,13 @@
       <c r="Z420">
         <v>159</v>
       </c>
-      <c r="AA420">
+      <c r="AA420" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB420">
         <v>0.2606020628789823</v>
       </c>
-      <c r="AB420" t="inlineStr">
+      <c r="AC420" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -42070,10 +43332,13 @@
       <c r="Z421">
         <v>159</v>
       </c>
-      <c r="AA421">
+      <c r="AA421" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB421">
         <v>0.2972783688692955</v>
       </c>
-      <c r="AB421" t="inlineStr">
+      <c r="AC421" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -42169,10 +43434,13 @@
       <c r="Z422">
         <v>159</v>
       </c>
-      <c r="AA422">
+      <c r="AA422" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB422">
         <v>0.2486518076905931</v>
       </c>
-      <c r="AB422" t="inlineStr">
+      <c r="AC422" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -42268,10 +43536,13 @@
       <c r="Z423">
         <v>159</v>
       </c>
-      <c r="AA423">
+      <c r="AA423" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB423">
         <v>0.3262090668122529</v>
       </c>
-      <c r="AB423" t="inlineStr">
+      <c r="AC423" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -42367,10 +43638,13 @@
       <c r="Z424">
         <v>159</v>
       </c>
-      <c r="AA424">
+      <c r="AA424" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB424">
         <v>0.3731517465153378</v>
       </c>
-      <c r="AB424" t="inlineStr">
+      <c r="AC424" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -42466,10 +43740,13 @@
       <c r="Z425">
         <v>159</v>
       </c>
-      <c r="AA425">
+      <c r="AA425" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB425">
         <v>0.3006286027178294</v>
       </c>
-      <c r="AB425" t="inlineStr">
+      <c r="AC425" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -42565,10 +43842,13 @@
       <c r="Z426">
         <v>159</v>
       </c>
-      <c r="AA426">
+      <c r="AA426" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB426">
         <v>0.4133664425961925</v>
       </c>
-      <c r="AB426" t="inlineStr">
+      <c r="AC426" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -42664,10 +43944,13 @@
       <c r="Z427">
         <v>159</v>
       </c>
-      <c r="AA427">
+      <c r="AA427" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB427">
         <v>0.3473151360913247</v>
       </c>
-      <c r="AB427" t="inlineStr">
+      <c r="AC427" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -42763,10 +44046,13 @@
       <c r="Z428">
         <v>159</v>
       </c>
-      <c r="AA428">
+      <c r="AA428" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB428">
         <v>0.2369786826080113</v>
       </c>
-      <c r="AB428" t="inlineStr">
+      <c r="AC428" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -42862,10 +44148,13 @@
       <c r="Z429">
         <v>159</v>
       </c>
-      <c r="AA429">
+      <c r="AA429" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB429">
         <v>0.3716699001794024</v>
       </c>
-      <c r="AB429" t="inlineStr">
+      <c r="AC429" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -42961,10 +44250,13 @@
       <c r="Z430">
         <v>159</v>
       </c>
-      <c r="AA430">
+      <c r="AA430" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB430">
         <v>0.2617936396405088</v>
       </c>
-      <c r="AB430" t="inlineStr">
+      <c r="AC430" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -43060,10 +44352,13 @@
       <c r="Z431">
         <v>159</v>
       </c>
-      <c r="AA431">
+      <c r="AA431" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB431">
         <v>0.3234814099022345</v>
       </c>
-      <c r="AB431" t="inlineStr">
+      <c r="AC431" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -43159,10 +44454,13 @@
       <c r="Z432">
         <v>159</v>
       </c>
-      <c r="AA432">
+      <c r="AA432" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB432">
         <v>0.2643101767813019</v>
       </c>
-      <c r="AB432" t="inlineStr">
+      <c r="AC432" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -43258,10 +44556,13 @@
       <c r="Z433">
         <v>159</v>
       </c>
-      <c r="AA433">
+      <c r="AA433" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB433">
         <v>0.3302614682135378</v>
       </c>
-      <c r="AB433" t="inlineStr">
+      <c r="AC433" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -43357,10 +44658,13 @@
       <c r="Z434">
         <v>159</v>
       </c>
-      <c r="AA434">
+      <c r="AA434" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB434">
         <v>0.3789102788391649</v>
       </c>
-      <c r="AB434" t="inlineStr">
+      <c r="AC434" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -43456,10 +44760,13 @@
       <c r="Z435">
         <v>159</v>
       </c>
-      <c r="AA435">
+      <c r="AA435" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB435">
         <v>0.3153212510153865</v>
       </c>
-      <c r="AB435" t="inlineStr">
+      <c r="AC435" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -43555,10 +44862,13 @@
       <c r="Z436">
         <v>159</v>
       </c>
-      <c r="AA436">
+      <c r="AA436" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB436">
         <v>0.4222452392214606</v>
       </c>
-      <c r="AB436" t="inlineStr">
+      <c r="AC436" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -43654,10 +44964,13 @@
       <c r="Z437">
         <v>159</v>
       </c>
-      <c r="AA437">
+      <c r="AA437" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB437">
         <v>0.3705770078763922</v>
       </c>
-      <c r="AB437" t="inlineStr">
+      <c r="AC437" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -43753,10 +45066,13 @@
       <c r="Z438">
         <v>159</v>
       </c>
-      <c r="AA438">
+      <c r="AA438" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB438">
         <v>0.3766599857661436</v>
       </c>
-      <c r="AB438" t="inlineStr">
+      <c r="AC438" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -43852,10 +45168,13 @@
       <c r="Z439">
         <v>159</v>
       </c>
-      <c r="AA439">
+      <c r="AA439" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB439">
         <v>0.3125532274468819</v>
       </c>
-      <c r="AB439" t="inlineStr">
+      <c r="AC439" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -43951,10 +45270,13 @@
       <c r="Z440">
         <v>159</v>
       </c>
-      <c r="AA440">
+      <c r="AA440" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB440">
         <v>0.4211683233760434</v>
       </c>
-      <c r="AB440" t="inlineStr">
+      <c r="AC440" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -44050,10 +45372,13 @@
       <c r="Z441">
         <v>159</v>
       </c>
-      <c r="AA441">
+      <c r="AA441" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB441">
         <v>0.3638943744920611</v>
       </c>
-      <c r="AB441" t="inlineStr">
+      <c r="AC441" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -44149,10 +45474,13 @@
       <c r="Z442">
         <v>159</v>
       </c>
-      <c r="AA442">
+      <c r="AA442" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB442">
         <v>0.4249894936718163</v>
       </c>
-      <c r="AB442" t="inlineStr">
+      <c r="AC442" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -44248,10 +45576,13 @@
       <c r="Z443">
         <v>159</v>
       </c>
-      <c r="AA443">
+      <c r="AA443" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB443">
         <v>0.3898388412780321</v>
       </c>
-      <c r="AB443" t="inlineStr">
+      <c r="AC443" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -44347,10 +45678,13 @@
       <c r="Z444">
         <v>159</v>
       </c>
-      <c r="AA444">
+      <c r="AA444" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB444">
         <v>0.3198313035161386</v>
       </c>
-      <c r="AB444" t="inlineStr">
+      <c r="AC444" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -44446,10 +45780,13 @@
       <c r="Z445">
         <v>159</v>
       </c>
-      <c r="AA445">
+      <c r="AA445" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB445">
         <v>0.42302248898286</v>
       </c>
-      <c r="AB445" t="inlineStr">
+      <c r="AC445" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -44545,10 +45882,13 @@
       <c r="Z446">
         <v>159</v>
       </c>
-      <c r="AA446">
+      <c r="AA446" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB446">
         <v>0.3894423132722505</v>
       </c>
-      <c r="AB446" t="inlineStr">
+      <c r="AC446" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -44644,10 +45984,13 @@
       <c r="Z447">
         <v>159</v>
       </c>
-      <c r="AA447">
+      <c r="AA447" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB447">
         <v>0.4441989624921009</v>
       </c>
-      <c r="AB447" t="inlineStr">
+      <c r="AC447" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -44743,10 +46086,13 @@
       <c r="Z448">
         <v>159</v>
       </c>
-      <c r="AA448">
+      <c r="AA448" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB448">
         <v>0.439784755819617</v>
       </c>
-      <c r="AB448" t="inlineStr">
+      <c r="AC448" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -44842,10 +46188,13 @@
       <c r="Z449">
         <v>159</v>
       </c>
-      <c r="AA449">
+      <c r="AA449" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB449">
         <v>0.453752154778362</v>
       </c>
-      <c r="AB449" t="inlineStr">
+      <c r="AC449" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -44941,10 +46290,13 @@
       <c r="Z450">
         <v>159</v>
       </c>
-      <c r="AA450">
+      <c r="AA450" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB450">
         <v>0.09136606318845303</v>
       </c>
-      <c r="AB450" t="inlineStr">
+      <c r="AC450" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -45040,10 +46392,13 @@
       <c r="Z451">
         <v>159</v>
       </c>
-      <c r="AA451">
+      <c r="AA451" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB451">
         <v>0.09143134344230483</v>
       </c>
-      <c r="AB451" t="inlineStr">
+      <c r="AC451" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -45139,10 +46494,13 @@
       <c r="Z452">
         <v>159</v>
       </c>
-      <c r="AA452">
+      <c r="AA452" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB452">
         <v>0.09155153794954782</v>
       </c>
-      <c r="AB452" t="inlineStr">
+      <c r="AC452" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -45238,10 +46596,13 @@
       <c r="Z453">
         <v>159</v>
       </c>
-      <c r="AA453">
+      <c r="AA453" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB453">
         <v>0.1659288120246081</v>
       </c>
-      <c r="AB453" t="inlineStr">
+      <c r="AC453" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -45337,10 +46698,13 @@
       <c r="Z454">
         <v>159</v>
       </c>
-      <c r="AA454">
+      <c r="AA454" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB454">
         <v>0.1381148359183353</v>
       </c>
-      <c r="AB454" t="inlineStr">
+      <c r="AC454" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -45436,10 +46800,13 @@
       <c r="Z455">
         <v>159</v>
       </c>
-      <c r="AA455">
+      <c r="AA455" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB455">
         <v>0.1909822999060846</v>
       </c>
-      <c r="AB455" t="inlineStr">
+      <c r="AC455" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -45535,10 +46902,13 @@
       <c r="Z456">
         <v>159</v>
       </c>
-      <c r="AA456">
+      <c r="AA456" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB456">
         <v>0.110453872575219</v>
       </c>
-      <c r="AB456" t="inlineStr">
+      <c r="AC456" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -45634,10 +47004,13 @@
       <c r="Z457">
         <v>159</v>
       </c>
-      <c r="AA457">
+      <c r="AA457" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB457">
         <v>0.09262685604116819</v>
       </c>
-      <c r="AB457" t="inlineStr">
+      <c r="AC457" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -45733,10 +47106,13 @@
       <c r="Z458">
         <v>159</v>
       </c>
-      <c r="AA458">
+      <c r="AA458" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB458">
         <v>0.1661693782443575</v>
       </c>
-      <c r="AB458" t="inlineStr">
+      <c r="AC458" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -45832,10 +47208,13 @@
       <c r="Z459">
         <v>159</v>
       </c>
-      <c r="AA459">
+      <c r="AA459" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB459">
         <v>0.1446380028277878</v>
       </c>
-      <c r="AB459" t="inlineStr">
+      <c r="AC459" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -45931,10 +47310,13 @@
       <c r="Z460">
         <v>159</v>
       </c>
-      <c r="AA460">
+      <c r="AA460" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB460">
         <v>0.1938954940257684</v>
       </c>
-      <c r="AB460" t="inlineStr">
+      <c r="AC460" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -46030,10 +47412,13 @@
       <c r="Z461">
         <v>159</v>
       </c>
-      <c r="AA461">
+      <c r="AA461" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB461">
         <v>0.1120466490733608</v>
       </c>
-      <c r="AB461" t="inlineStr">
+      <c r="AC461" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -46129,10 +47514,13 @@
       <c r="Z462">
         <v>159</v>
       </c>
-      <c r="AA462">
+      <c r="AA462" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB462">
         <v>0.1665420678298435</v>
       </c>
-      <c r="AB462" t="inlineStr">
+      <c r="AC462" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -46228,10 +47616,13 @@
       <c r="Z463">
         <v>159</v>
       </c>
-      <c r="AA463">
+      <c r="AA463" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB463">
         <v>0.1430159828544809</v>
       </c>
-      <c r="AB463" t="inlineStr">
+      <c r="AC463" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -46327,10 +47718,13 @@
       <c r="Z464">
         <v>159</v>
       </c>
-      <c r="AA464">
+      <c r="AA464" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB464">
         <v>0.1935886236091538</v>
       </c>
-      <c r="AB464" t="inlineStr">
+      <c r="AC464" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -46426,10 +47820,13 @@
       <c r="Z465">
         <v>159</v>
       </c>
-      <c r="AA465">
+      <c r="AA465" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB465">
         <v>0.1127549774573131</v>
       </c>
-      <c r="AB465" t="inlineStr">
+      <c r="AC465" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -46525,10 +47922,13 @@
       <c r="Z466">
         <v>159</v>
       </c>
-      <c r="AA466">
+      <c r="AA466" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB466">
         <v>0.1943453490596624</v>
       </c>
-      <c r="AB466" t="inlineStr">
+      <c r="AC466" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -46624,10 +48024,13 @@
       <c r="Z467">
         <v>159</v>
       </c>
-      <c r="AA467">
+      <c r="AA467" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB467">
         <v>0.2659056649523101</v>
       </c>
-      <c r="AB467" t="inlineStr">
+      <c r="AC467" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -46723,10 +48126,13 @@
       <c r="Z468">
         <v>159</v>
       </c>
-      <c r="AA468">
+      <c r="AA468" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB468">
         <v>0.1838716842475347</v>
       </c>
-      <c r="AB468" t="inlineStr">
+      <c r="AC468" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -46822,10 +48228,13 @@
       <c r="Z469">
         <v>159</v>
       </c>
-      <c r="AA469">
+      <c r="AA469" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB469">
         <v>0.2106505301556849</v>
       </c>
-      <c r="AB469" t="inlineStr">
+      <c r="AC469" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -46921,10 +48330,13 @@
       <c r="Z470">
         <v>159</v>
       </c>
-      <c r="AA470">
+      <c r="AA470" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB470">
         <v>0.1618689734934559</v>
       </c>
-      <c r="AB470" t="inlineStr">
+      <c r="AC470" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -47020,10 +48432,13 @@
       <c r="Z471">
         <v>159</v>
       </c>
-      <c r="AA471">
+      <c r="AA471" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB471">
         <v>0.2015597394895965</v>
       </c>
-      <c r="AB471" t="inlineStr">
+      <c r="AC471" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -47119,10 +48534,13 @@
       <c r="Z472">
         <v>159</v>
       </c>
-      <c r="AA472">
+      <c r="AA472" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB472">
         <v>0.1695386770463873</v>
       </c>
-      <c r="AB472" t="inlineStr">
+      <c r="AC472" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -47218,10 +48636,13 @@
       <c r="Z473">
         <v>159</v>
       </c>
-      <c r="AA473">
+      <c r="AA473" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB473">
         <v>0.1486495785425291</v>
       </c>
-      <c r="AB473" t="inlineStr">
+      <c r="AC473" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -47317,10 +48738,13 @@
       <c r="Z474">
         <v>159</v>
       </c>
-      <c r="AA474">
+      <c r="AA474" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB474">
         <v>0.1940790575286791</v>
       </c>
-      <c r="AB474" t="inlineStr">
+      <c r="AC474" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -47416,10 +48840,13 @@
       <c r="Z475">
         <v>159</v>
       </c>
-      <c r="AA475">
+      <c r="AA475" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB475">
         <v>0.1147096029235125</v>
       </c>
-      <c r="AB475" t="inlineStr">
+      <c r="AC475" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -47515,10 +48942,13 @@
       <c r="Z476">
         <v>159</v>
       </c>
-      <c r="AA476">
+      <c r="AA476" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB476">
         <v>0.2000330709535788</v>
       </c>
-      <c r="AB476" t="inlineStr">
+      <c r="AC476" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -47614,10 +49044,13 @@
       <c r="Z477">
         <v>159</v>
       </c>
-      <c r="AA477">
+      <c r="AA477" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB477">
         <v>0.2701423814624787</v>
       </c>
-      <c r="AB477" t="inlineStr">
+      <c r="AC477" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -47713,10 +49146,13 @@
       <c r="Z478">
         <v>159</v>
       </c>
-      <c r="AA478">
+      <c r="AA478" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB478">
         <v>0.1859254626842519</v>
       </c>
-      <c r="AB478" t="inlineStr">
+      <c r="AC478" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -47812,10 +49248,13 @@
       <c r="Z479">
         <v>159</v>
       </c>
-      <c r="AA479">
+      <c r="AA479" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB479">
         <v>0.2205325336648213</v>
       </c>
-      <c r="AB479" t="inlineStr">
+      <c r="AC479" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -47911,10 +49350,13 @@
       <c r="Z480">
         <v>159</v>
       </c>
-      <c r="AA480">
+      <c r="AA480" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB480">
         <v>0.1775276492044201</v>
       </c>
-      <c r="AB480" t="inlineStr">
+      <c r="AC480" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48010,10 +49452,13 @@
       <c r="Z481">
         <v>159</v>
       </c>
-      <c r="AA481">
+      <c r="AA481" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB481">
         <v>0.2075393764234554</v>
       </c>
-      <c r="AB481" t="inlineStr">
+      <c r="AC481" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48109,10 +49554,13 @@
       <c r="Z482">
         <v>159</v>
       </c>
-      <c r="AA482">
+      <c r="AA482" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB482">
         <v>0.1993519385591933</v>
       </c>
-      <c r="AB482" t="inlineStr">
+      <c r="AC482" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48208,10 +49656,13 @@
       <c r="Z483">
         <v>159</v>
       </c>
-      <c r="AA483">
+      <c r="AA483" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB483">
         <v>0.2702226084402805</v>
       </c>
-      <c r="AB483" t="inlineStr">
+      <c r="AC483" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48307,10 +49758,13 @@
       <c r="Z484">
         <v>159</v>
       </c>
-      <c r="AA484">
+      <c r="AA484" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB484">
         <v>0.1870905635539115</v>
       </c>
-      <c r="AB484" t="inlineStr">
+      <c r="AC484" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48406,10 +49860,13 @@
       <c r="Z485">
         <v>159</v>
       </c>
-      <c r="AA485">
+      <c r="AA485" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB485">
         <v>0.2179678657779973</v>
       </c>
-      <c r="AB485" t="inlineStr">
+      <c r="AC485" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48505,10 +49962,13 @@
       <c r="Z486">
         <v>159</v>
       </c>
-      <c r="AA486">
+      <c r="AA486" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB486">
         <v>0.1751194836758088</v>
       </c>
-      <c r="AB486" t="inlineStr">
+      <c r="AC486" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48604,10 +50064,13 @@
       <c r="Z487">
         <v>159</v>
       </c>
-      <c r="AA487">
+      <c r="AA487" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB487">
         <v>0.20741966116373</v>
       </c>
-      <c r="AB487" t="inlineStr">
+      <c r="AC487" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48703,10 +50166,13 @@
       <c r="Z488">
         <v>159</v>
       </c>
-      <c r="AA488">
+      <c r="AA488" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB488">
         <v>0.2741498896501354</v>
       </c>
-      <c r="AB488" t="inlineStr">
+      <c r="AC488" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48802,10 +50268,13 @@
       <c r="Z489">
         <v>159</v>
       </c>
-      <c r="AA489">
+      <c r="AA489" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB489">
         <v>0.2161538413413651</v>
       </c>
-      <c r="AB489" t="inlineStr">
+      <c r="AC489" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -48901,10 +50370,13 @@
       <c r="Z490">
         <v>159</v>
       </c>
-      <c r="AA490">
+      <c r="AA490" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB490">
         <v>0.275214042489635</v>
       </c>
-      <c r="AB490" t="inlineStr">
+      <c r="AC490" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49000,10 +50472,13 @@
       <c r="Z491">
         <v>159</v>
       </c>
-      <c r="AA491">
+      <c r="AA491" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB491">
         <v>0.2246376003425993</v>
       </c>
-      <c r="AB491" t="inlineStr">
+      <c r="AC491" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49099,10 +50574,13 @@
       <c r="Z492">
         <v>159</v>
       </c>
-      <c r="AA492">
+      <c r="AA492" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB492">
         <v>0.2006557519253847</v>
       </c>
-      <c r="AB492" t="inlineStr">
+      <c r="AC492" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49198,10 +50676,13 @@
       <c r="Z493">
         <v>159</v>
       </c>
-      <c r="AA493">
+      <c r="AA493" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB493">
         <v>0.2702251540311763</v>
       </c>
-      <c r="AB493" t="inlineStr">
+      <c r="AC493" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49297,10 +50778,13 @@
       <c r="Z494">
         <v>159</v>
       </c>
-      <c r="AA494">
+      <c r="AA494" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB494">
         <v>0.1911589263857449</v>
       </c>
-      <c r="AB494" t="inlineStr">
+      <c r="AC494" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49396,10 +50880,13 @@
       <c r="Z495">
         <v>159</v>
       </c>
-      <c r="AA495">
+      <c r="AA495" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB495">
         <v>0.2272676497889537</v>
       </c>
-      <c r="AB495" t="inlineStr">
+      <c r="AC495" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49495,10 +50982,13 @@
       <c r="Z496">
         <v>159</v>
       </c>
-      <c r="AA496">
+      <c r="AA496" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB496">
         <v>0.1802910076822551</v>
       </c>
-      <c r="AB496" t="inlineStr">
+      <c r="AC496" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49594,10 +51084,13 @@
       <c r="Z497">
         <v>159</v>
       </c>
-      <c r="AA497">
+      <c r="AA497" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB497">
         <v>0.2075424363277997</v>
       </c>
-      <c r="AB497" t="inlineStr">
+      <c r="AC497" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49693,10 +51186,13 @@
       <c r="Z498">
         <v>159</v>
       </c>
-      <c r="AA498">
+      <c r="AA498" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB498">
         <v>0.2836284501146876</v>
       </c>
-      <c r="AB498" t="inlineStr">
+      <c r="AC498" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49792,10 +51288,13 @@
       <c r="Z499">
         <v>159</v>
       </c>
-      <c r="AA499">
+      <c r="AA499" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB499">
         <v>0.2298609725819923</v>
       </c>
-      <c r="AB499" t="inlineStr">
+      <c r="AC499" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49891,10 +51390,13 @@
       <c r="Z500">
         <v>159</v>
       </c>
-      <c r="AA500">
+      <c r="AA500" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB500">
         <v>0.2826287726662348</v>
       </c>
-      <c r="AB500" t="inlineStr">
+      <c r="AC500" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -49990,10 +51492,13 @@
       <c r="Z501">
         <v>159</v>
       </c>
-      <c r="AA501">
+      <c r="AA501" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB501">
         <v>0.242531601958556</v>
       </c>
-      <c r="AB501" t="inlineStr">
+      <c r="AC501" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50089,10 +51594,13 @@
       <c r="Z502">
         <v>159</v>
       </c>
-      <c r="AA502">
+      <c r="AA502" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB502">
         <v>0.282181443866307</v>
       </c>
-      <c r="AB502" t="inlineStr">
+      <c r="AC502" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50188,10 +51696,13 @@
       <c r="Z503">
         <v>159</v>
       </c>
-      <c r="AA503">
+      <c r="AA503" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB503">
         <v>0.2288258276942476</v>
       </c>
-      <c r="AB503" t="inlineStr">
+      <c r="AC503" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50287,10 +51798,13 @@
       <c r="Z504">
         <v>159</v>
       </c>
-      <c r="AA504">
+      <c r="AA504" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB504">
         <v>0.2830590770174981</v>
       </c>
-      <c r="AB504" t="inlineStr">
+      <c r="AC504" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50386,10 +51900,13 @@
       <c r="Z505">
         <v>159</v>
       </c>
-      <c r="AA505">
+      <c r="AA505" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB505">
         <v>0.2391725881047436</v>
       </c>
-      <c r="AB505" t="inlineStr">
+      <c r="AC505" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50485,10 +52002,13 @@
       <c r="Z506">
         <v>159</v>
       </c>
-      <c r="AA506">
+      <c r="AA506" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB506">
         <v>0.2857164205071062</v>
       </c>
-      <c r="AB506" t="inlineStr">
+      <c r="AC506" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50584,10 +52104,13 @@
       <c r="Z507">
         <v>159</v>
       </c>
-      <c r="AA507">
+      <c r="AA507" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB507">
         <v>0.285526308295086</v>
       </c>
-      <c r="AB507" t="inlineStr">
+      <c r="AC507" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50683,10 +52206,13 @@
       <c r="Z508">
         <v>159</v>
       </c>
-      <c r="AA508">
+      <c r="AA508" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB508">
         <v>0.2302402058841374</v>
       </c>
-      <c r="AB508" t="inlineStr">
+      <c r="AC508" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50782,10 +52308,13 @@
       <c r="Z509">
         <v>159</v>
       </c>
-      <c r="AA509">
+      <c r="AA509" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB509">
         <v>0.2831159231470665</v>
       </c>
-      <c r="AB509" t="inlineStr">
+      <c r="AC509" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50881,10 +52410,13 @@
       <c r="Z510">
         <v>159</v>
       </c>
-      <c r="AA510">
+      <c r="AA510" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB510">
         <v>0.2477175365174342</v>
       </c>
-      <c r="AB510" t="inlineStr">
+      <c r="AC510" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -50980,10 +52512,13 @@
       <c r="Z511">
         <v>159</v>
       </c>
-      <c r="AA511">
+      <c r="AA511" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB511">
         <v>0.302105067442195</v>
       </c>
-      <c r="AB511" t="inlineStr">
+      <c r="AC511" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -51079,10 +52614,13 @@
       <c r="Z512">
         <v>159</v>
       </c>
-      <c r="AA512">
+      <c r="AA512" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB512">
         <v>0.3002302830490337</v>
       </c>
-      <c r="AB512" t="inlineStr">
+      <c r="AC512" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -51178,10 +52716,13 @@
       <c r="Z513">
         <v>159</v>
       </c>
-      <c r="AA513">
+      <c r="AA513" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB513">
         <v>0.3035546402416096</v>
       </c>
-      <c r="AB513" t="inlineStr">
+      <c r="AC513" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -51277,10 +52818,13 @@
       <c r="Z514">
         <v>159</v>
       </c>
-      <c r="AA514">
+      <c r="AA514" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB514">
         <v>0.1008588477418102</v>
       </c>
-      <c r="AB514" t="inlineStr">
+      <c r="AC514" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -51376,10 +52920,13 @@
       <c r="Z515">
         <v>159</v>
       </c>
-      <c r="AA515">
+      <c r="AA515" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB515">
         <v>0.1016496148116307</v>
       </c>
-      <c r="AB515" t="inlineStr">
+      <c r="AC515" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -51475,10 +53022,13 @@
       <c r="Z516">
         <v>159</v>
       </c>
-      <c r="AA516">
+      <c r="AA516" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB516">
         <v>0.1020740559741359</v>
       </c>
-      <c r="AB516" t="inlineStr">
+      <c r="AC516" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -51574,10 +53124,13 @@
       <c r="Z517">
         <v>159</v>
       </c>
-      <c r="AA517">
+      <c r="AA517" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB517">
         <v>0.1761718152238947</v>
       </c>
-      <c r="AB517" t="inlineStr">
+      <c r="AC517" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -51673,10 +53226,13 @@
       <c r="Z518">
         <v>159</v>
       </c>
-      <c r="AA518">
+      <c r="AA518" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB518">
         <v>0.1500039461816275</v>
       </c>
-      <c r="AB518" t="inlineStr">
+      <c r="AC518" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -51772,10 +53328,13 @@
       <c r="Z519">
         <v>159</v>
       </c>
-      <c r="AA519">
+      <c r="AA519" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB519">
         <v>0.2895212980658698</v>
       </c>
-      <c r="AB519" t="inlineStr">
+      <c r="AC519" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -51871,10 +53430,13 @@
       <c r="Z520">
         <v>159</v>
       </c>
-      <c r="AA520">
+      <c r="AA520" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB520">
         <v>0.1995598430097476</v>
       </c>
-      <c r="AB520" t="inlineStr">
+      <c r="AC520" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -51970,10 +53532,13 @@
       <c r="Z521">
         <v>159</v>
       </c>
-      <c r="AA521">
+      <c r="AA521" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB521">
         <v>0.1035474638329455</v>
       </c>
-      <c r="AB521" t="inlineStr">
+      <c r="AC521" t="inlineStr">
         <is>
           <t>small</t>
         </is>
@@ -52069,10 +53634,13 @@
       <c r="Z522">
         <v>159</v>
       </c>
-      <c r="AA522">
+      <c r="AA522" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB522">
         <v>0.1770956255985768</v>
       </c>
-      <c r="AB522" t="inlineStr">
+      <c r="AC522" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -52168,10 +53736,13 @@
       <c r="Z523">
         <v>159</v>
       </c>
-      <c r="AA523">
+      <c r="AA523" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB523">
         <v>0.1518285165523822</v>
       </c>
-      <c r="AB523" t="inlineStr">
+      <c r="AC523" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -52267,10 +53838,13 @@
       <c r="Z524">
         <v>159</v>
       </c>
-      <c r="AA524">
+      <c r="AA524" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB524">
         <v>0.2904793659797632</v>
       </c>
-      <c r="AB524" t="inlineStr">
+      <c r="AC524" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -52366,10 +53940,13 @@
       <c r="Z525">
         <v>159</v>
       </c>
-      <c r="AA525">
+      <c r="AA525" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB525">
         <v>0.2013787103989887</v>
       </c>
-      <c r="AB525" t="inlineStr">
+      <c r="AC525" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -52465,10 +54042,13 @@
       <c r="Z526">
         <v>159</v>
       </c>
-      <c r="AA526">
+      <c r="AA526" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB526">
         <v>0.1772796126030039</v>
       </c>
-      <c r="AB526" t="inlineStr">
+      <c r="AC526" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -52564,10 +54144,13 @@
       <c r="Z527">
         <v>159</v>
       </c>
-      <c r="AA527">
+      <c r="AA527" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB527">
         <v>0.1503707541824256</v>
       </c>
-      <c r="AB527" t="inlineStr">
+      <c r="AC527" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -52663,10 +54246,13 @@
       <c r="Z528">
         <v>159</v>
       </c>
-      <c r="AA528">
+      <c r="AA528" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB528">
         <v>0.289628249014582</v>
       </c>
-      <c r="AB528" t="inlineStr">
+      <c r="AC528" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -52762,10 +54348,13 @@
       <c r="Z529">
         <v>159</v>
       </c>
-      <c r="AA529">
+      <c r="AA529" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB529">
         <v>0.2011753647126012</v>
       </c>
-      <c r="AB529" t="inlineStr">
+      <c r="AC529" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -52861,10 +54450,13 @@
       <c r="Z530">
         <v>159</v>
       </c>
-      <c r="AA530">
+      <c r="AA530" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB530">
         <v>0.205045204437096</v>
       </c>
-      <c r="AB530" t="inlineStr">
+      <c r="AC530" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -52960,10 +54552,13 @@
       <c r="Z531">
         <v>159</v>
       </c>
-      <c r="AA531">
+      <c r="AA531" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB531">
         <v>0.3679018738855889</v>
       </c>
-      <c r="AB531" t="inlineStr">
+      <c r="AC531" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -53059,10 +54654,13 @@
       <c r="Z532">
         <v>159</v>
       </c>
-      <c r="AA532">
+      <c r="AA532" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB532">
         <v>0.2792145906810595</v>
       </c>
-      <c r="AB532" t="inlineStr">
+      <c r="AC532" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -53158,10 +54756,13 @@
       <c r="Z533">
         <v>159</v>
       </c>
-      <c r="AA533">
+      <c r="AA533" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB533">
         <v>0.3039305169818681</v>
       </c>
-      <c r="AB533" t="inlineStr">
+      <c r="AC533" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -53257,10 +54858,13 @@
       <c r="Z534">
         <v>159</v>
       </c>
-      <c r="AA534">
+      <c r="AA534" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB534">
         <v>0.2659333045652851</v>
       </c>
-      <c r="AB534" t="inlineStr">
+      <c r="AC534" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -53356,10 +54960,13 @@
       <c r="Z535">
         <v>159</v>
       </c>
-      <c r="AA535">
+      <c r="AA535" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB535">
         <v>0.3774690938276912</v>
       </c>
-      <c r="AB535" t="inlineStr">
+      <c r="AC535" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -53455,10 +55062,13 @@
       <c r="Z536">
         <v>159</v>
       </c>
-      <c r="AA536">
+      <c r="AA536" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB536">
         <v>0.1775035745042002</v>
       </c>
-      <c r="AB536" t="inlineStr">
+      <c r="AC536" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -53554,10 +55164,13 @@
       <c r="Z537">
         <v>159</v>
       </c>
-      <c r="AA537">
+      <c r="AA537" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB537">
         <v>0.1745457500751669</v>
       </c>
-      <c r="AB537" t="inlineStr">
+      <c r="AC537" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -53653,10 +55266,13 @@
       <c r="Z538">
         <v>159</v>
       </c>
-      <c r="AA538">
+      <c r="AA538" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB538">
         <v>0.3061328400461208</v>
       </c>
-      <c r="AB538" t="inlineStr">
+      <c r="AC538" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -53752,10 +55368,13 @@
       <c r="Z539">
         <v>159</v>
       </c>
-      <c r="AA539">
+      <c r="AA539" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB539">
         <v>0.2015017153572438</v>
       </c>
-      <c r="AB539" t="inlineStr">
+      <c r="AC539" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -53851,10 +55470,13 @@
       <c r="Z540">
         <v>159</v>
       </c>
-      <c r="AA540">
+      <c r="AA540" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB540">
         <v>0.2057223290256876</v>
       </c>
-      <c r="AB540" t="inlineStr">
+      <c r="AC540" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -53950,10 +55572,13 @@
       <c r="Z541">
         <v>159</v>
       </c>
-      <c r="AA541">
+      <c r="AA541" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB541">
         <v>0.3689943309642087</v>
       </c>
-      <c r="AB541" t="inlineStr">
+      <c r="AC541" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -54049,10 +55674,13 @@
       <c r="Z542">
         <v>159</v>
       </c>
-      <c r="AA542">
+      <c r="AA542" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB542">
         <v>0.2807013800091788</v>
       </c>
-      <c r="AB542" t="inlineStr">
+      <c r="AC542" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -54148,10 +55776,13 @@
       <c r="Z543">
         <v>159</v>
       </c>
-      <c r="AA543">
+      <c r="AA543" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB543">
         <v>0.3086204931665876</v>
       </c>
-      <c r="AB543" t="inlineStr">
+      <c r="AC543" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -54247,10 +55878,13 @@
       <c r="Z544">
         <v>159</v>
       </c>
-      <c r="AA544">
+      <c r="AA544" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB544">
         <v>0.2855659883094378</v>
       </c>
-      <c r="AB544" t="inlineStr">
+      <c r="AC544" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -54346,10 +55980,13 @@
       <c r="Z545">
         <v>159</v>
       </c>
-      <c r="AA545">
+      <c r="AA545" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB545">
         <v>0.3870972524065585</v>
       </c>
-      <c r="AB545" t="inlineStr">
+      <c r="AC545" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -54445,10 +56082,13 @@
       <c r="Z546">
         <v>159</v>
       </c>
-      <c r="AA546">
+      <c r="AA546" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB546">
         <v>0.2051362804093562</v>
       </c>
-      <c r="AB546" t="inlineStr">
+      <c r="AC546" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -54544,10 +56184,13 @@
       <c r="Z547">
         <v>159</v>
       </c>
-      <c r="AA547">
+      <c r="AA547" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB547">
         <v>0.3681665043230931</v>
       </c>
-      <c r="AB547" t="inlineStr">
+      <c r="AC547" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -54643,10 +56286,13 @@
       <c r="Z548">
         <v>159</v>
       </c>
-      <c r="AA548">
+      <c r="AA548" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB548">
         <v>0.2807726207031326</v>
       </c>
-      <c r="AB548" t="inlineStr">
+      <c r="AC548" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -54742,10 +56388,13 @@
       <c r="Z549">
         <v>159</v>
       </c>
-      <c r="AA549">
+      <c r="AA549" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB549">
         <v>0.3053873554611388</v>
       </c>
-      <c r="AB549" t="inlineStr">
+      <c r="AC549" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -54841,10 +56490,13 @@
       <c r="Z550">
         <v>159</v>
       </c>
-      <c r="AA550">
+      <c r="AA550" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB550">
         <v>0.2793580094288206</v>
       </c>
-      <c r="AB550" t="inlineStr">
+      <c r="AC550" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -54940,10 +56592,13 @@
       <c r="Z551">
         <v>159</v>
       </c>
-      <c r="AA551">
+      <c r="AA551" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB551">
         <v>0.3841148165654215</v>
       </c>
-      <c r="AB551" t="inlineStr">
+      <c r="AC551" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -55039,10 +56694,13 @@
       <c r="Z552">
         <v>159</v>
       </c>
-      <c r="AA552">
+      <c r="AA552" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB552">
         <v>0.3718811015954908</v>
       </c>
-      <c r="AB552" t="inlineStr">
+      <c r="AC552" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -55138,10 +56796,13 @@
       <c r="Z553">
         <v>159</v>
       </c>
-      <c r="AA553">
+      <c r="AA553" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB553">
         <v>0.3215365221660993</v>
       </c>
-      <c r="AB553" t="inlineStr">
+      <c r="AC553" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -55237,10 +56898,13 @@
       <c r="Z554">
         <v>159</v>
       </c>
-      <c r="AA554">
+      <c r="AA554" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB554">
         <v>0.4579133107935745</v>
       </c>
-      <c r="AB554" t="inlineStr">
+      <c r="AC554" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -55336,10 +57000,13 @@
       <c r="Z555">
         <v>159</v>
       </c>
-      <c r="AA555">
+      <c r="AA555" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB555">
         <v>0.4023636382716277</v>
       </c>
-      <c r="AB555" t="inlineStr">
+      <c r="AC555" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -55435,10 +57102,13 @@
       <c r="Z556">
         <v>159</v>
       </c>
-      <c r="AA556">
+      <c r="AA556" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB556">
         <v>0.2172434794990321</v>
       </c>
-      <c r="AB556" t="inlineStr">
+      <c r="AC556" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -55534,10 +57204,13 @@
       <c r="Z557">
         <v>159</v>
       </c>
-      <c r="AA557">
+      <c r="AA557" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB557">
         <v>0.3792351509417177</v>
       </c>
-      <c r="AB557" t="inlineStr">
+      <c r="AC557" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -55633,10 +57306,13 @@
       <c r="Z558">
         <v>159</v>
       </c>
-      <c r="AA558">
+      <c r="AA558" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB558">
         <v>0.2807772791187561</v>
       </c>
-      <c r="AB558" t="inlineStr">
+      <c r="AC558" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -55732,10 +57408,13 @@
       <c r="Z559">
         <v>159</v>
       </c>
-      <c r="AA559">
+      <c r="AA559" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB559">
         <v>0.3461732360268226</v>
       </c>
-      <c r="AB559" t="inlineStr">
+      <c r="AC559" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -55831,10 +57510,13 @@
       <c r="Z560">
         <v>159</v>
       </c>
-      <c r="AA560">
+      <c r="AA560" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB560">
         <v>0.3055638779645775</v>
       </c>
-      <c r="AB560" t="inlineStr">
+      <c r="AC560" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -55930,10 +57612,13 @@
       <c r="Z561">
         <v>159</v>
       </c>
-      <c r="AA561">
+      <c r="AA561" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB561">
         <v>0.3956365509382732</v>
       </c>
-      <c r="AB561" t="inlineStr">
+      <c r="AC561" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -56029,10 +57714,13 @@
       <c r="Z562">
         <v>159</v>
       </c>
-      <c r="AA562">
+      <c r="AA562" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB562">
         <v>0.3748536293838257</v>
       </c>
-      <c r="AB562" t="inlineStr">
+      <c r="AC562" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -56128,10 +57816,13 @@
       <c r="Z563">
         <v>159</v>
       </c>
-      <c r="AA563">
+      <c r="AA563" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB563">
         <v>0.3358984123173035</v>
       </c>
-      <c r="AB563" t="inlineStr">
+      <c r="AC563" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -56227,10 +57918,13 @@
       <c r="Z564">
         <v>159</v>
       </c>
-      <c r="AA564">
+      <c r="AA564" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB564">
         <v>0.467402688409913</v>
       </c>
-      <c r="AB564" t="inlineStr">
+      <c r="AC564" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -56326,10 +58020,13 @@
       <c r="Z565">
         <v>159</v>
       </c>
-      <c r="AA565">
+      <c r="AA565" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB565">
         <v>0.4273648576990123</v>
       </c>
-      <c r="AB565" t="inlineStr">
+      <c r="AC565" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -56425,10 +58122,13 @@
       <c r="Z566">
         <v>159</v>
       </c>
-      <c r="AA566">
+      <c r="AA566" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB566">
         <v>0.3728851293009808</v>
       </c>
-      <c r="AB566" t="inlineStr">
+      <c r="AC566" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -56524,10 +58224,13 @@
       <c r="Z567">
         <v>159</v>
       </c>
-      <c r="AA567">
+      <c r="AA567" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB567">
         <v>0.3319170951594086</v>
       </c>
-      <c r="AB567" t="inlineStr">
+      <c r="AC567" t="inlineStr">
         <is>
           <t>medium</t>
         </is>
@@ -56623,10 +58326,13 @@
       <c r="Z568">
         <v>159</v>
       </c>
-      <c r="AA568">
+      <c r="AA568" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB568">
         <v>0.4650096698382554</v>
       </c>
-      <c r="AB568" t="inlineStr">
+      <c r="AC568" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -56722,10 +58428,13 @@
       <c r="Z569">
         <v>159</v>
       </c>
-      <c r="AA569">
+      <c r="AA569" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB569">
         <v>0.4185454062125777</v>
       </c>
-      <c r="AB569" t="inlineStr">
+      <c r="AC569" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -56821,10 +58530,13 @@
       <c r="Z570">
         <v>159</v>
       </c>
-      <c r="AA570">
+      <c r="AA570" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB570">
         <v>0.4681231930872736</v>
       </c>
-      <c r="AB570" t="inlineStr">
+      <c r="AC570" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -56920,10 +58632,13 @@
       <c r="Z571">
         <v>159</v>
       </c>
-      <c r="AA571">
+      <c r="AA571" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB571">
         <v>0.3967121447583205</v>
       </c>
-      <c r="AB571" t="inlineStr">
+      <c r="AC571" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -57019,10 +58734,13 @@
       <c r="Z572">
         <v>159</v>
       </c>
-      <c r="AA572">
+      <c r="AA572" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB572">
         <v>0.3470488248195523</v>
       </c>
-      <c r="AB572" t="inlineStr">
+      <c r="AC572" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -57118,10 +58836,13 @@
       <c r="Z573">
         <v>159</v>
       </c>
-      <c r="AA573">
+      <c r="AA573" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB573">
         <v>0.4725600410537275</v>
       </c>
-      <c r="AB573" t="inlineStr">
+      <c r="AC573" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -57217,10 +58938,13 @@
       <c r="Z574">
         <v>159</v>
       </c>
-      <c r="AA574">
+      <c r="AA574" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB574">
         <v>0.4608501411911868</v>
       </c>
-      <c r="AB574" t="inlineStr">
+      <c r="AC574" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -57316,10 +59040,13 @@
       <c r="Z575">
         <v>159</v>
       </c>
-      <c r="AA575">
+      <c r="AA575" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB575">
         <v>0.487574360559208</v>
       </c>
-      <c r="AB575" t="inlineStr">
+      <c r="AC575" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -57415,10 +59142,13 @@
       <c r="Z576">
         <v>159</v>
       </c>
-      <c r="AA576">
+      <c r="AA576" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB576">
         <v>0.4814298500343083</v>
       </c>
-      <c r="AB576" t="inlineStr">
+      <c r="AC576" t="inlineStr">
         <is>
           <t>large</t>
         </is>
@@ -57514,10 +59244,13 @@
       <c r="Z577">
         <v>159</v>
       </c>
-      <c r="AA577">
+      <c r="AA577" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB577">
         <v>0.5083612384489004</v>
       </c>
-      <c r="AB577" t="inlineStr">
+      <c r="AC577" t="inlineStr">
         <is>
           <t>large</t>
         </is>
